--- a/JupyterNotebooks/AvgHW/Alpha3F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,25 +82,25 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,31 +626,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000193701703544</v>
+        <v>1.000190189011086</v>
       </c>
       <c r="D3">
+        <v>1.000193701703543</v>
+      </c>
+      <c r="E3">
+        <v>1.000502379490783</v>
+      </c>
+      <c r="F3">
+        <v>0.9995820129208107</v>
+      </c>
+      <c r="G3">
+        <v>1.000193701703543</v>
+      </c>
+      <c r="H3">
         <v>0.9992379362109776</v>
       </c>
-      <c r="E3">
+      <c r="I3">
         <v>1.000188744779907</v>
-      </c>
-      <c r="F3">
-        <v>1.000193701703544</v>
-      </c>
-      <c r="G3">
-        <v>1.000502379490783</v>
-      </c>
-      <c r="H3">
-        <v>0.9995820129208107</v>
-      </c>
-      <c r="I3">
-        <v>1.000190189011086</v>
       </c>
       <c r="J3">
         <v>0.9992379362109776</v>
       </c>
       <c r="K3">
-        <v>1.000193701703544</v>
+        <v>1.000193701703543</v>
       </c>
       <c r="L3">
         <v>1.000188744779907</v>
@@ -713,22 +665,22 @@
         <v>0.9996695646372317</v>
       </c>
       <c r="P3">
-        <v>0.9998734608981427</v>
+        <v>0.9998734608981424</v>
       </c>
       <c r="Q3">
-        <v>0.9998734608981427</v>
+        <v>0.9998734608981424</v>
       </c>
       <c r="R3">
-        <v>0.9999535210994929</v>
+        <v>0.9999535210994926</v>
       </c>
       <c r="S3">
-        <v>0.9999535210994929</v>
+        <v>0.9999535210994926</v>
       </c>
       <c r="T3">
-        <v>0.999982494019518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999824940195179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,25 +688,25 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.000367180343983</v>
+      </c>
+      <c r="D4">
         <v>1.000374250039157</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>1.000969496776547</v>
+      </c>
+      <c r="F4">
+        <v>0.9991930690019738</v>
+      </c>
+      <c r="G4">
+        <v>1.000374250039157</v>
+      </c>
+      <c r="H4">
         <v>0.9985286533184807</v>
       </c>
-      <c r="E4">
+      <c r="I4">
         <v>1.000364271840125</v>
-      </c>
-      <c r="F4">
-        <v>1.000374250039157</v>
-      </c>
-      <c r="G4">
-        <v>1.000969496776547</v>
-      </c>
-      <c r="H4">
-        <v>0.9991930690019738</v>
-      </c>
-      <c r="I4">
-        <v>1.000367180343983</v>
       </c>
       <c r="J4">
         <v>0.9985286533184807</v>
@@ -775,22 +727,22 @@
         <v>0.9993619980535265</v>
       </c>
       <c r="P4">
-        <v>0.9997557250659209</v>
+        <v>0.999755725065921</v>
       </c>
       <c r="Q4">
-        <v>0.9997557250659209</v>
+        <v>0.999755725065921</v>
       </c>
       <c r="R4">
-        <v>0.99991035630923</v>
+        <v>0.9999103563092301</v>
       </c>
       <c r="S4">
-        <v>0.99991035630923</v>
+        <v>0.9999103563092301</v>
       </c>
       <c r="T4">
-        <v>0.9999661535533777</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9999661535533778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,25 +750,25 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.000703566991124</v>
+      </c>
+      <c r="D5">
         <v>1.00071582483687</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>1.001859427403913</v>
+      </c>
+      <c r="F5">
+        <v>0.998453662304909</v>
+      </c>
+      <c r="G5">
+        <v>1.00071582483687</v>
+      </c>
+      <c r="H5">
         <v>0.9971811932398634</v>
       </c>
-      <c r="E5">
+      <c r="I5">
         <v>1.000698519676488</v>
-      </c>
-      <c r="F5">
-        <v>1.00071582483687</v>
-      </c>
-      <c r="G5">
-        <v>1.001859427403913</v>
-      </c>
-      <c r="H5">
-        <v>0.998453662304909</v>
-      </c>
-      <c r="I5">
-        <v>1.000703566991124</v>
       </c>
       <c r="J5">
         <v>0.9971811932398634</v>
@@ -852,7 +804,7 @@
         <v>0.9999353657421947</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.001031859445234</v>
+      </c>
+      <c r="D6">
         <v>1.001049293457343</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>1.002727842938732</v>
+      </c>
+      <c r="F6">
+        <v>0.9977320327920671</v>
+      </c>
+      <c r="G6">
+        <v>1.001049293457343</v>
+      </c>
+      <c r="H6">
         <v>0.9958660874218971</v>
       </c>
-      <c r="E6">
+      <c r="I6">
         <v>1.001024701895676</v>
-      </c>
-      <c r="F6">
-        <v>1.001049293457343</v>
-      </c>
-      <c r="G6">
-        <v>1.002727842938732</v>
-      </c>
-      <c r="H6">
-        <v>0.9977320327920671</v>
-      </c>
-      <c r="I6">
-        <v>1.001031859445234</v>
       </c>
       <c r="J6">
         <v>0.9958660874218971</v>
@@ -914,7 +866,7 @@
         <v>0.9999053029918247</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.000014536128601</v>
+      </c>
+      <c r="D7">
         <v>1.000014362471722</v>
       </c>
-      <c r="D7">
-        <v>0.9999419128367176</v>
-      </c>
       <c r="E7">
+        <v>1.000039006835137</v>
+      </c>
+      <c r="F7">
+        <v>0.9999679961965358</v>
+      </c>
+      <c r="G7">
+        <v>1.000014362471722</v>
+      </c>
+      <c r="H7">
+        <v>0.9999419128367174</v>
+      </c>
+      <c r="I7">
         <v>1.00001460867201</v>
       </c>
-      <c r="F7">
-        <v>1.000014362471722</v>
-      </c>
-      <c r="G7">
-        <v>1.000039006835137</v>
-      </c>
-      <c r="H7">
-        <v>0.9999679961965358</v>
-      </c>
-      <c r="I7">
-        <v>1.0000145361286</v>
-      </c>
       <c r="J7">
-        <v>0.9999419128367176</v>
+        <v>0.9999419128367174</v>
       </c>
       <c r="K7">
         <v>1.000014362471722</v>
@@ -973,10 +925,10 @@
         <v>0.9999963116130428</v>
       </c>
       <c r="T7">
-        <v>0.9999987371901206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999987371901203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>1.000042152097903</v>
+      </c>
+      <c r="D8">
         <v>1.000041976598509</v>
       </c>
-      <c r="D8">
-        <v>0.9998314492516184</v>
-      </c>
       <c r="E8">
+        <v>1.000112652979615</v>
+      </c>
+      <c r="F8">
+        <v>0.9999072404248761</v>
+      </c>
+      <c r="G8">
+        <v>1.000041976598509</v>
+      </c>
+      <c r="H8">
+        <v>0.9998314492516182</v>
+      </c>
+      <c r="I8">
         <v>1.000042225706073</v>
       </c>
-      <c r="F8">
-        <v>1.000041976598509</v>
-      </c>
-      <c r="G8">
-        <v>1.000112652979615</v>
-      </c>
-      <c r="H8">
-        <v>0.9999072404248762</v>
-      </c>
-      <c r="I8">
-        <v>1.000042152097903</v>
-      </c>
       <c r="J8">
-        <v>0.9998314492516184</v>
+        <v>0.9998314492516182</v>
       </c>
       <c r="K8">
         <v>1.000041976598509</v>
@@ -1029,16 +981,16 @@
         <v>0.9999718838520666</v>
       </c>
       <c r="R8">
-        <v>0.9999894070386772</v>
+        <v>0.9999894070386771</v>
       </c>
       <c r="S8">
-        <v>0.9999894070386772</v>
+        <v>0.9999894070386771</v>
       </c>
       <c r="T8">
-        <v>0.999996282843099</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999962828430989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,25 +998,25 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.000058206159525</v>
+      </c>
+      <c r="D9">
         <v>1.000058534014671</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>1.000154775375334</v>
+      </c>
+      <c r="F9">
+        <v>0.999871983882379</v>
+      </c>
+      <c r="G9">
+        <v>1.000058534014671</v>
+      </c>
+      <c r="H9">
         <v>0.9997670481272509</v>
       </c>
-      <c r="E9">
+      <c r="I9">
         <v>1.000058072433146</v>
-      </c>
-      <c r="F9">
-        <v>1.000058534014671</v>
-      </c>
-      <c r="G9">
-        <v>1.000154775375334</v>
-      </c>
-      <c r="H9">
-        <v>0.9998719838823791</v>
-      </c>
-      <c r="I9">
-        <v>1.000058206159525</v>
       </c>
       <c r="J9">
         <v>0.9997670481272509</v>
@@ -1082,7 +1034,7 @@
         <v>0.9999125602801986</v>
       </c>
       <c r="O9">
-        <v>0.9998990348142588</v>
+        <v>0.9998990348142587</v>
       </c>
       <c r="P9">
         <v>0.9999612181916894</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999947699987177</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,25 +1060,25 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.000125755062292</v>
+      </c>
+      <c r="D10">
         <v>1.000125763373497</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>1.000335345630411</v>
+      </c>
+      <c r="F10">
+        <v>0.9997233349217752</v>
+      </c>
+      <c r="G10">
+        <v>1.000125763373497</v>
+      </c>
+      <c r="H10">
         <v>0.9994969670654635</v>
       </c>
-      <c r="E10">
+      <c r="I10">
         <v>1.000125753255337</v>
-      </c>
-      <c r="F10">
-        <v>1.000125763373497</v>
-      </c>
-      <c r="G10">
-        <v>1.000335345630411</v>
-      </c>
-      <c r="H10">
-        <v>0.9997233349217752</v>
-      </c>
-      <c r="I10">
-        <v>1.000125755062292</v>
       </c>
       <c r="J10">
         <v>0.9994969670654635</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999888198847958</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,25 +1122,25 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.000210721858338</v>
+      </c>
+      <c r="D11">
         <v>1.000212497486396</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>1.000559515131581</v>
+      </c>
+      <c r="F11">
+        <v>0.9995366239171529</v>
+      </c>
+      <c r="G11">
+        <v>1.000212497486396</v>
+      </c>
+      <c r="H11">
         <v>0.9991564469018445</v>
       </c>
-      <c r="E11">
+      <c r="I11">
         <v>1.000209995110136</v>
-      </c>
-      <c r="F11">
-        <v>1.000212497486396</v>
-      </c>
-      <c r="G11">
-        <v>1.000559515131581</v>
-      </c>
-      <c r="H11">
-        <v>0.9995366239171529</v>
-      </c>
-      <c r="I11">
-        <v>1.000210721858338</v>
       </c>
       <c r="J11">
         <v>0.9991564469018445</v>
@@ -1224,7 +1176,7 @@
         <v>0.9999809667342413</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,25 +1184,25 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9970235420755293</v>
+      </c>
+      <c r="D12">
         <v>0.9970373435804138</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>0.9920439098363573</v>
+      </c>
+      <c r="F12">
+        <v>1.006549913773344</v>
+      </c>
+      <c r="G12">
+        <v>0.9970373435804138</v>
+      </c>
+      <c r="H12">
         <v>1.011900739234415</v>
       </c>
-      <c r="E12">
+      <c r="I12">
         <v>0.9970178570257232</v>
-      </c>
-      <c r="F12">
-        <v>0.9970373435804138</v>
-      </c>
-      <c r="G12">
-        <v>0.9920439098363573</v>
-      </c>
-      <c r="H12">
-        <v>1.006549913773344</v>
-      </c>
-      <c r="I12">
-        <v>0.9970235420755293</v>
       </c>
       <c r="J12">
         <v>1.011900739234415</v>
@@ -1286,7 +1238,7 @@
         <v>1.000262217587631</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,25 +1246,25 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9992274725860867</v>
+      </c>
+      <c r="D13">
         <v>0.9992211241281937</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>0.9979485986214079</v>
+      </c>
+      <c r="F13">
+        <v>1.001698778897178</v>
+      </c>
+      <c r="G13">
+        <v>0.9992211241281937</v>
+      </c>
+      <c r="H13">
         <v>1.003092467888098</v>
       </c>
-      <c r="E13">
-        <v>0.9992300831470611</v>
-      </c>
-      <c r="F13">
-        <v>0.9992211241281937</v>
-      </c>
-      <c r="G13">
-        <v>0.9979485986214078</v>
-      </c>
-      <c r="H13">
-        <v>1.001698778897178</v>
-      </c>
       <c r="I13">
-        <v>0.9992274725860867</v>
+        <v>0.9992300831470612</v>
       </c>
       <c r="J13">
         <v>1.003092467888098</v>
@@ -1321,7 +1273,7 @@
         <v>0.9992211241281937</v>
       </c>
       <c r="L13">
-        <v>0.9992300831470611</v>
+        <v>0.9992300831470612</v>
       </c>
       <c r="M13">
         <v>1.00116127551758</v>
@@ -1333,7 +1285,7 @@
         <v>1.001340443310779</v>
       </c>
       <c r="P13">
-        <v>1.000514558387784</v>
+        <v>1.000514558387785</v>
       </c>
       <c r="Q13">
         <v>1.000514558387784</v>
@@ -1348,7 +1300,7 @@
         <v>1.000069754211337</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,31 +1308,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9904424245314533</v>
+        <v>0.9906687327933373</v>
       </c>
       <c r="D14">
+        <v>0.9904424245314536</v>
+      </c>
+      <c r="E14">
+        <v>0.97542581761095</v>
+      </c>
+      <c r="F14">
+        <v>1.020500958329837</v>
+      </c>
+      <c r="G14">
+        <v>0.9904424245314536</v>
+      </c>
+      <c r="H14">
         <v>1.037408880011357</v>
       </c>
-      <c r="E14">
+      <c r="I14">
         <v>0.9907618649600245</v>
-      </c>
-      <c r="F14">
-        <v>0.9904424245314533</v>
-      </c>
-      <c r="G14">
-        <v>0.97542581761095</v>
-      </c>
-      <c r="H14">
-        <v>1.020500958329837</v>
-      </c>
-      <c r="I14">
-        <v>0.9906687327933373</v>
       </c>
       <c r="J14">
         <v>1.037408880011357</v>
       </c>
       <c r="K14">
-        <v>0.9904424245314533</v>
+        <v>0.9904424245314536</v>
       </c>
       <c r="L14">
         <v>0.9907618649600245</v>
@@ -1410,7 +1362,7 @@
         <v>1.000868113039493</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,25 +1370,25 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.9975199020681135</v>
+      </c>
+      <c r="D15">
         <v>0.9976113671436374</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>0.9932614545863709</v>
+      </c>
+      <c r="F15">
+        <v>1.005467452870495</v>
+      </c>
+      <c r="G15">
+        <v>0.9976113671436374</v>
+      </c>
+      <c r="H15">
         <v>1.009886502223196</v>
       </c>
-      <c r="E15">
+      <c r="I15">
         <v>0.9974822711396779</v>
-      </c>
-      <c r="F15">
-        <v>0.9976113671436374</v>
-      </c>
-      <c r="G15">
-        <v>0.9932614545863709</v>
-      </c>
-      <c r="H15">
-        <v>1.005467452870495</v>
-      </c>
-      <c r="I15">
-        <v>0.9975199020681135</v>
       </c>
       <c r="J15">
         <v>1.009886502223196</v>
@@ -1472,7 +1424,7 @@
         <v>1.000204825005248</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999985612467994</v>
+        <v>1.003709688220228</v>
       </c>
       <c r="D16">
-        <v>0.9999982297751245</v>
+        <v>1.003768276483213</v>
       </c>
       <c r="E16">
-        <v>1.000001486060404</v>
+        <v>1.009812442688074</v>
       </c>
       <c r="F16">
-        <v>0.9999985612467994</v>
+        <v>0.9918458994329447</v>
       </c>
       <c r="G16">
-        <v>1.000004523734461</v>
+        <v>1.003768276483213</v>
       </c>
       <c r="H16">
-        <v>0.999998350589281</v>
+        <v>0.9851395646221123</v>
       </c>
       <c r="I16">
-        <v>1.000000632463225</v>
+        <v>1.003685570008115</v>
       </c>
       <c r="J16">
-        <v>0.9999982297751245</v>
+        <v>0.9851395646221123</v>
       </c>
       <c r="K16">
-        <v>0.9999985612467994</v>
+        <v>1.003768276483213</v>
       </c>
       <c r="L16">
-        <v>1.000001486060404</v>
+        <v>1.003685570008115</v>
       </c>
       <c r="M16">
-        <v>0.9999998579177642</v>
+        <v>0.9944125673151134</v>
       </c>
       <c r="N16">
-        <v>0.9999998579177642</v>
+        <v>0.9944125673151134</v>
       </c>
       <c r="O16">
-        <v>0.9999993554749365</v>
+        <v>0.9935570113543905</v>
       </c>
       <c r="P16">
-        <v>0.9999994256941093</v>
+        <v>0.9975311370378135</v>
       </c>
       <c r="Q16">
-        <v>0.9999994256941092</v>
+        <v>0.9975311370378135</v>
       </c>
       <c r="R16">
-        <v>0.9999992095822817</v>
+        <v>0.9990904218991634</v>
       </c>
       <c r="S16">
-        <v>0.9999992095822817</v>
+        <v>0.9990904218991634</v>
       </c>
       <c r="T16">
-        <v>1.000000297311549</v>
+        <v>0.999660240242448</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000019403453409</v>
+        <v>1.003036598671667</v>
       </c>
       <c r="D17">
-        <v>0.9999318391141585</v>
+        <v>1.003066775362523</v>
       </c>
       <c r="E17">
-        <v>1.00001572572152</v>
+        <v>1.008056361684528</v>
       </c>
       <c r="F17">
-        <v>1.000019403453409</v>
+        <v>0.9933231982615862</v>
       </c>
       <c r="G17">
-        <v>1.000041239295459</v>
+        <v>1.003066775362523</v>
       </c>
       <c r="H17">
-        <v>0.9999633638072573</v>
+        <v>0.9878424375128674</v>
       </c>
       <c r="I17">
-        <v>1.000016796834172</v>
+        <v>1.003024175902291</v>
       </c>
       <c r="J17">
-        <v>0.9999318391141585</v>
+        <v>0.9878424375128674</v>
       </c>
       <c r="K17">
-        <v>1.000019403453409</v>
+        <v>1.003066775362523</v>
       </c>
       <c r="L17">
-        <v>1.00001572572152</v>
+        <v>1.003024175902291</v>
       </c>
       <c r="M17">
-        <v>0.9999737824178392</v>
+        <v>0.995433306707579</v>
       </c>
       <c r="N17">
-        <v>0.9999737824178392</v>
+        <v>0.995433306707579</v>
       </c>
       <c r="O17">
-        <v>0.9999703095476452</v>
+        <v>0.9947299372255815</v>
       </c>
       <c r="P17">
-        <v>0.9999889894296957</v>
+        <v>0.9979777962592271</v>
       </c>
       <c r="Q17">
-        <v>0.9999889894296957</v>
+        <v>0.9979777962592271</v>
       </c>
       <c r="R17">
-        <v>0.999996592935624</v>
+        <v>0.9992500410350511</v>
       </c>
       <c r="S17">
-        <v>0.999996592935624</v>
+        <v>0.9992500410350511</v>
       </c>
       <c r="T17">
-        <v>0.999998061370996</v>
+        <v>0.9997249245659102</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000053610503605</v>
+        <v>1.00168745203685</v>
       </c>
       <c r="D18">
-        <v>0.9997690791812543</v>
+        <v>1.00166186056566</v>
       </c>
       <c r="E18">
-        <v>1.00006002062316</v>
+        <v>1.004534857053091</v>
       </c>
       <c r="F18">
-        <v>1.000053610503605</v>
+        <v>0.9962844511461866</v>
       </c>
       <c r="G18">
-        <v>1.000161280529135</v>
+        <v>1.00166186056566</v>
       </c>
       <c r="H18">
-        <v>0.9998715130813893</v>
+        <v>0.9932596586092781</v>
       </c>
       <c r="I18">
-        <v>1.000058146405786</v>
+        <v>1.001697989937179</v>
       </c>
       <c r="J18">
-        <v>0.9997690791812543</v>
+        <v>0.9932596586092781</v>
       </c>
       <c r="K18">
-        <v>1.000053610503605</v>
+        <v>1.00166186056566</v>
       </c>
       <c r="L18">
-        <v>1.00006002062316</v>
+        <v>1.001697989937179</v>
       </c>
       <c r="M18">
-        <v>0.9999145499022074</v>
+        <v>0.9974788242732284</v>
       </c>
       <c r="N18">
-        <v>0.9999145499022074</v>
+        <v>0.9974788242732284</v>
       </c>
       <c r="O18">
-        <v>0.999900204295268</v>
+        <v>0.9970806998975478</v>
       </c>
       <c r="P18">
-        <v>0.9999609034360066</v>
+        <v>0.9988731697040389</v>
       </c>
       <c r="Q18">
-        <v>0.9999609034360066</v>
+        <v>0.9988731697040389</v>
       </c>
       <c r="R18">
-        <v>0.9999840802029063</v>
+        <v>0.9995703424194442</v>
       </c>
       <c r="S18">
-        <v>0.9999840802029063</v>
+        <v>0.9995703424194442</v>
       </c>
       <c r="T18">
-        <v>0.9999956083873883</v>
+        <v>0.9998543782247075</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.001879885755599</v>
+      </c>
+      <c r="D19">
+        <v>1.001841253452213</v>
+      </c>
+      <c r="E19">
+        <v>1.005065815306709</v>
+      </c>
+      <c r="F19">
+        <v>0.9958594979148939</v>
+      </c>
+      <c r="G19">
+        <v>1.001841253452213</v>
+      </c>
+      <c r="H19">
+        <v>0.9924947611713172</v>
+      </c>
+      <c r="I19">
+        <v>1.001895787793146</v>
+      </c>
+      <c r="J19">
+        <v>0.9924947611713172</v>
+      </c>
+      <c r="K19">
+        <v>1.001841253452213</v>
+      </c>
+      <c r="L19">
+        <v>1.001895787793146</v>
+      </c>
+      <c r="M19">
+        <v>0.9971952744822317</v>
+      </c>
+      <c r="N19">
+        <v>0.9971952744822317</v>
+      </c>
+      <c r="O19">
+        <v>0.9967500156264525</v>
+      </c>
+      <c r="P19">
+        <v>0.9987439341388921</v>
+      </c>
+      <c r="Q19">
+        <v>0.9987439341388921</v>
+      </c>
+      <c r="R19">
+        <v>0.9995182639672222</v>
+      </c>
+      <c r="S19">
+        <v>0.9995182639672222</v>
+      </c>
+      <c r="T19">
+        <v>0.999839500232313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000000632463225</v>
+      </c>
+      <c r="D20">
+        <v>0.9999985612467995</v>
+      </c>
+      <c r="E20">
+        <v>1.000004523734461</v>
+      </c>
+      <c r="F20">
+        <v>0.999998350589281</v>
+      </c>
+      <c r="G20">
+        <v>0.9999985612467995</v>
+      </c>
+      <c r="H20">
+        <v>0.9999982297751245</v>
+      </c>
+      <c r="I20">
+        <v>1.000001486060404</v>
+      </c>
+      <c r="J20">
+        <v>0.9999982297751245</v>
+      </c>
+      <c r="K20">
+        <v>0.9999985612467995</v>
+      </c>
+      <c r="L20">
+        <v>1.000001486060404</v>
+      </c>
+      <c r="M20">
+        <v>0.9999998579177642</v>
+      </c>
+      <c r="N20">
+        <v>0.9999998579177642</v>
+      </c>
+      <c r="O20">
+        <v>0.9999993554749365</v>
+      </c>
+      <c r="P20">
+        <v>0.9999994256941093</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999994256941093</v>
+      </c>
+      <c r="R20">
+        <v>0.9999992095822818</v>
+      </c>
+      <c r="S20">
+        <v>0.9999992095822818</v>
+      </c>
+      <c r="T20">
+        <v>1.000000297311549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000016796834172</v>
+      </c>
+      <c r="D21">
+        <v>1.000019403453409</v>
+      </c>
+      <c r="E21">
+        <v>1.000041239295459</v>
+      </c>
+      <c r="F21">
+        <v>0.9999633638072571</v>
+      </c>
+      <c r="G21">
+        <v>1.000019403453409</v>
+      </c>
+      <c r="H21">
+        <v>0.9999318391141585</v>
+      </c>
+      <c r="I21">
+        <v>1.00001572572152</v>
+      </c>
+      <c r="J21">
+        <v>0.9999318391141585</v>
+      </c>
+      <c r="K21">
+        <v>1.000019403453409</v>
+      </c>
+      <c r="L21">
+        <v>1.00001572572152</v>
+      </c>
+      <c r="M21">
+        <v>0.9999737824178392</v>
+      </c>
+      <c r="N21">
+        <v>0.9999737824178392</v>
+      </c>
+      <c r="O21">
+        <v>0.9999703095476452</v>
+      </c>
+      <c r="P21">
+        <v>0.9999889894296957</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999889894296957</v>
+      </c>
+      <c r="R21">
+        <v>0.999996592935624</v>
+      </c>
+      <c r="S21">
+        <v>0.999996592935624</v>
+      </c>
+      <c r="T21">
+        <v>0.999998061370996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000058146405786</v>
+      </c>
+      <c r="D22">
+        <v>1.000053610503605</v>
+      </c>
+      <c r="E22">
+        <v>1.000161280529136</v>
+      </c>
+      <c r="F22">
+        <v>0.9998715130813893</v>
+      </c>
+      <c r="G22">
+        <v>1.000053610503605</v>
+      </c>
+      <c r="H22">
+        <v>0.9997690791812543</v>
+      </c>
+      <c r="I22">
+        <v>1.00006002062316</v>
+      </c>
+      <c r="J22">
+        <v>0.9997690791812543</v>
+      </c>
+      <c r="K22">
+        <v>1.000053610503605</v>
+      </c>
+      <c r="L22">
+        <v>1.00006002062316</v>
+      </c>
+      <c r="M22">
+        <v>0.9999145499022074</v>
+      </c>
+      <c r="N22">
+        <v>0.9999145499022074</v>
+      </c>
+      <c r="O22">
+        <v>0.999900204295268</v>
+      </c>
+      <c r="P22">
+        <v>0.9999609034360066</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999609034360066</v>
+      </c>
+      <c r="R22">
+        <v>0.9999840802029063</v>
+      </c>
+      <c r="S22">
+        <v>0.9999840802029063</v>
+      </c>
+      <c r="T22">
+        <v>0.9999956083873883</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000135669896341</v>
+      </c>
+      <c r="D23">
         <v>1.000117258483913</v>
       </c>
-      <c r="D19">
+      <c r="E23">
+        <v>1.000386932993124</v>
+      </c>
+      <c r="F23">
+        <v>0.9996992653307585</v>
+      </c>
+      <c r="G23">
+        <v>1.000117258483913</v>
+      </c>
+      <c r="H23">
         <v>0.9994641434259636</v>
       </c>
-      <c r="E19">
+      <c r="I23">
         <v>1.000143240085983</v>
       </c>
-      <c r="F19">
+      <c r="J23">
+        <v>0.9994641434259636</v>
+      </c>
+      <c r="K23">
         <v>1.000117258483913</v>
       </c>
-      <c r="G19">
-        <v>1.000386932993124</v>
-      </c>
-      <c r="H19">
-        <v>0.9996992653307585</v>
-      </c>
-      <c r="I19">
-        <v>1.000135669896341</v>
-      </c>
-      <c r="J19">
-        <v>0.9994641434259636</v>
-      </c>
-      <c r="K19">
-        <v>1.000117258483913</v>
-      </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.000143240085983</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9998036917559734</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9998036917559734</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9997688829475684</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9999082139986198</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9999082139986198</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999604751199431</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999604751199431</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.999991085036014</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW40.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000190189011086</v>
+        <v>1.0021183309366</v>
       </c>
       <c r="D3">
-        <v>1.000193701703543</v>
+        <v>1.002091901296829</v>
       </c>
       <c r="E3">
-        <v>1.000502379490783</v>
+        <v>1.005685002881846</v>
       </c>
       <c r="F3">
-        <v>0.9995820129208107</v>
+        <v>0.9953364160374621</v>
       </c>
       <c r="G3">
-        <v>1.000193701703543</v>
+        <v>1.002091901296829</v>
       </c>
       <c r="H3">
-        <v>0.9992379362109776</v>
+        <v>0.9915364556123937</v>
       </c>
       <c r="I3">
-        <v>1.000188744779907</v>
+        <v>1.002129210533143</v>
       </c>
       <c r="J3">
-        <v>0.9992379362109776</v>
+        <v>0.9915364556123937</v>
       </c>
       <c r="K3">
-        <v>1.000193701703543</v>
+        <v>1.002091901296829</v>
       </c>
       <c r="L3">
-        <v>1.000188744779907</v>
+        <v>1.002129210533143</v>
       </c>
       <c r="M3">
-        <v>0.9997133404954421</v>
+        <v>0.9968328330727683</v>
       </c>
       <c r="N3">
-        <v>0.9997133404954421</v>
+        <v>0.9968328330727683</v>
       </c>
       <c r="O3">
-        <v>0.9996695646372317</v>
+        <v>0.996334027394333</v>
       </c>
       <c r="P3">
-        <v>0.9998734608981424</v>
+        <v>0.998585855814122</v>
       </c>
       <c r="Q3">
-        <v>0.9998734608981424</v>
+        <v>0.9985858558141217</v>
       </c>
       <c r="R3">
-        <v>0.9999535210994926</v>
+        <v>0.9994623671847986</v>
       </c>
       <c r="S3">
-        <v>0.9999535210994926</v>
+        <v>0.9994623671847986</v>
       </c>
       <c r="T3">
-        <v>0.9999824940195179</v>
+        <v>0.9998162195497122</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000367180343983</v>
+        <v>1.001884629983228</v>
       </c>
       <c r="D4">
-        <v>1.000374250039157</v>
+        <v>1.00185781997018</v>
       </c>
       <c r="E4">
-        <v>1.000969496776547</v>
+        <v>1.005062318665674</v>
       </c>
       <c r="F4">
-        <v>0.9991930690019738</v>
+        <v>0.9958505122083511</v>
       </c>
       <c r="G4">
-        <v>1.000374250039157</v>
+        <v>1.00185781997018</v>
       </c>
       <c r="H4">
-        <v>0.9985286533184807</v>
+        <v>0.9924714013697391</v>
       </c>
       <c r="I4">
-        <v>1.000364271840125</v>
+        <v>1.001895665721208</v>
       </c>
       <c r="J4">
-        <v>0.9985286533184807</v>
+        <v>0.9924714013697391</v>
       </c>
       <c r="K4">
-        <v>1.000374250039157</v>
+        <v>1.00185781997018</v>
       </c>
       <c r="L4">
-        <v>1.000364271840125</v>
+        <v>1.001895665721208</v>
       </c>
       <c r="M4">
-        <v>0.9994464625793029</v>
+        <v>0.9971835335454734</v>
       </c>
       <c r="N4">
-        <v>0.9994464625793029</v>
+        <v>0.9971835335454734</v>
       </c>
       <c r="O4">
-        <v>0.9993619980535265</v>
+        <v>0.9967391930997659</v>
       </c>
       <c r="P4">
-        <v>0.999755725065921</v>
+        <v>0.9987416290203756</v>
       </c>
       <c r="Q4">
-        <v>0.999755725065921</v>
+        <v>0.9987416290203756</v>
       </c>
       <c r="R4">
-        <v>0.9999103563092301</v>
+        <v>0.9995206767578265</v>
       </c>
       <c r="S4">
-        <v>0.9999103563092301</v>
+        <v>0.9995206767578265</v>
       </c>
       <c r="T4">
-        <v>0.9999661535533778</v>
+        <v>0.9998370579863965</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000703566991124</v>
+        <v>1.002560201078165</v>
       </c>
       <c r="D5">
-        <v>1.00071582483687</v>
+        <v>1.002534541185985</v>
       </c>
       <c r="E5">
-        <v>1.001859427403913</v>
+        <v>1.00686228328841</v>
       </c>
       <c r="F5">
-        <v>0.998453662304909</v>
+        <v>0.9943643950404326</v>
       </c>
       <c r="G5">
-        <v>1.00071582483687</v>
+        <v>1.002534541185985</v>
       </c>
       <c r="H5">
-        <v>0.9971811932398634</v>
+        <v>0.9897686884636102</v>
       </c>
       <c r="I5">
-        <v>1.000698519676488</v>
+        <v>1.002570769164419</v>
       </c>
       <c r="J5">
-        <v>0.9971811932398634</v>
+        <v>0.9897686884636102</v>
       </c>
       <c r="K5">
-        <v>1.00071582483687</v>
+        <v>1.002534541185985</v>
       </c>
       <c r="L5">
-        <v>1.000698519676488</v>
+        <v>1.002570769164419</v>
       </c>
       <c r="M5">
-        <v>0.998939856458176</v>
+        <v>0.9961697288140148</v>
       </c>
       <c r="N5">
-        <v>0.998939856458176</v>
+        <v>0.9961697288140148</v>
       </c>
       <c r="O5">
-        <v>0.9987777917404204</v>
+        <v>0.9955679508894875</v>
       </c>
       <c r="P5">
-        <v>0.9995318459177408</v>
+        <v>0.9982913329380049</v>
       </c>
       <c r="Q5">
-        <v>0.9995318459177408</v>
+        <v>0.9982913329380049</v>
       </c>
       <c r="R5">
-        <v>0.9998278406475232</v>
+        <v>0.9993521349999999</v>
       </c>
       <c r="S5">
-        <v>0.9998278406475232</v>
+        <v>0.9993521349999999</v>
       </c>
       <c r="T5">
-        <v>0.9999353657421947</v>
+        <v>0.9997768130368372</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.001031859445234</v>
+        <v>1.002970451136364</v>
       </c>
       <c r="D6">
-        <v>1.001049293457343</v>
+        <v>1.002945553977274</v>
       </c>
       <c r="E6">
-        <v>1.002727842938732</v>
+        <v>1.007955248522727</v>
       </c>
       <c r="F6">
-        <v>0.9977320327920671</v>
+        <v>0.9934619368749991</v>
       </c>
       <c r="G6">
-        <v>1.001049293457343</v>
+        <v>1.002945553977274</v>
       </c>
       <c r="H6">
-        <v>0.9958660874218971</v>
+        <v>0.9881273974431813</v>
       </c>
       <c r="I6">
-        <v>1.001024701895676</v>
+        <v>1.002980709090908</v>
       </c>
       <c r="J6">
-        <v>0.9958660874218971</v>
+        <v>0.9881273974431813</v>
       </c>
       <c r="K6">
-        <v>1.001049293457343</v>
+        <v>1.002945553977274</v>
       </c>
       <c r="L6">
-        <v>1.001024701895676</v>
+        <v>1.002980709090908</v>
       </c>
       <c r="M6">
-        <v>0.9984453946587866</v>
+        <v>0.9955540532670448</v>
       </c>
       <c r="N6">
-        <v>0.9984453946587866</v>
+        <v>0.9955540532670448</v>
       </c>
       <c r="O6">
-        <v>0.9982076073698801</v>
+        <v>0.9948566811363628</v>
       </c>
       <c r="P6">
-        <v>0.9993133609249719</v>
+        <v>0.998017886837121</v>
       </c>
       <c r="Q6">
-        <v>0.9993133609249719</v>
+        <v>0.998017886837121</v>
       </c>
       <c r="R6">
-        <v>0.9997473440580646</v>
+        <v>0.9992498036221591</v>
       </c>
       <c r="S6">
-        <v>0.9997473440580646</v>
+        <v>0.9992498036221591</v>
       </c>
       <c r="T6">
-        <v>0.9999053029918247</v>
+        <v>0.9997402161742422</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000014536128601</v>
+        <v>1.011713812887281</v>
       </c>
       <c r="D7">
-        <v>1.000014362471722</v>
+        <v>1.012045983261708</v>
       </c>
       <c r="E7">
-        <v>1.000039006835137</v>
+        <v>1.030783078806451</v>
       </c>
       <c r="F7">
-        <v>0.9999679961965358</v>
+        <v>0.9742704185738139</v>
       </c>
       <c r="G7">
-        <v>1.000014362471722</v>
+        <v>1.012045983261708</v>
       </c>
       <c r="H7">
-        <v>0.9999419128367174</v>
+        <v>0.9530216667051876</v>
       </c>
       <c r="I7">
-        <v>1.00001460867201</v>
+        <v>1.011577143220957</v>
       </c>
       <c r="J7">
-        <v>0.9999419128367174</v>
+        <v>0.9530216667051876</v>
       </c>
       <c r="K7">
-        <v>1.000014362471722</v>
+        <v>1.012045983261708</v>
       </c>
       <c r="L7">
-        <v>1.00001460867201</v>
+        <v>1.011577143220957</v>
       </c>
       <c r="M7">
-        <v>0.9999782607543639</v>
+        <v>0.9822994049630726</v>
       </c>
       <c r="N7">
-        <v>0.9999782607543639</v>
+        <v>0.9822994049630726</v>
       </c>
       <c r="O7">
-        <v>0.9999748392350879</v>
+        <v>0.979623076166653</v>
       </c>
       <c r="P7">
-        <v>0.9999902946601499</v>
+        <v>0.9922149310626177</v>
       </c>
       <c r="Q7">
-        <v>0.9999902946601499</v>
+        <v>0.9922149310626177</v>
       </c>
       <c r="R7">
-        <v>0.9999963116130428</v>
+        <v>0.9971726941123902</v>
       </c>
       <c r="S7">
-        <v>0.9999963116130428</v>
+        <v>0.9971726941123902</v>
       </c>
       <c r="T7">
-        <v>0.9999987371901203</v>
+        <v>0.9989020172425663</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000042152097903</v>
+        <v>1.011713713555401</v>
       </c>
       <c r="D8">
-        <v>1.000041976598509</v>
+        <v>1.012044513451855</v>
       </c>
       <c r="E8">
-        <v>1.000112652979615</v>
+        <v>1.030784686801507</v>
       </c>
       <c r="F8">
-        <v>0.9999072404248761</v>
+        <v>0.9742704683139841</v>
       </c>
       <c r="G8">
-        <v>1.000041976598509</v>
+        <v>1.012044513451855</v>
       </c>
       <c r="H8">
-        <v>0.9998314492516182</v>
+        <v>0.9530225711532808</v>
       </c>
       <c r="I8">
-        <v>1.000042225706073</v>
+        <v>1.011577608018684</v>
       </c>
       <c r="J8">
-        <v>0.9998314492516182</v>
+        <v>0.9530225711532808</v>
       </c>
       <c r="K8">
-        <v>1.000041976598509</v>
+        <v>1.012044513451855</v>
       </c>
       <c r="L8">
-        <v>1.000042225706073</v>
+        <v>1.011577608018684</v>
       </c>
       <c r="M8">
-        <v>0.9999368374788455</v>
+        <v>0.9823000895859824</v>
       </c>
       <c r="N8">
-        <v>0.9999368374788455</v>
+        <v>0.9823000895859824</v>
       </c>
       <c r="O8">
-        <v>0.9999269717941891</v>
+        <v>0.979623549161983</v>
       </c>
       <c r="P8">
-        <v>0.9999718838520666</v>
+        <v>0.9922148975412733</v>
       </c>
       <c r="Q8">
-        <v>0.9999718838520666</v>
+        <v>0.9922148975412733</v>
       </c>
       <c r="R8">
-        <v>0.9999894070386771</v>
+        <v>0.9971723015189187</v>
       </c>
       <c r="S8">
-        <v>0.9999894070386771</v>
+        <v>0.9971723015189187</v>
       </c>
       <c r="T8">
-        <v>0.9999962828430989</v>
+        <v>0.9989022602157852</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000058206159525</v>
+        <v>1.0117135236108</v>
       </c>
       <c r="D9">
-        <v>1.000058534014671</v>
+        <v>1.01204170093717</v>
       </c>
       <c r="E9">
-        <v>1.000154775375334</v>
+        <v>1.030787763661975</v>
       </c>
       <c r="F9">
-        <v>0.999871983882379</v>
+        <v>0.9742705634993497</v>
       </c>
       <c r="G9">
-        <v>1.000058534014671</v>
+        <v>1.01204170093717</v>
       </c>
       <c r="H9">
-        <v>0.9997670481272509</v>
+        <v>0.9530243019454193</v>
       </c>
       <c r="I9">
-        <v>1.000058072433146</v>
+        <v>1.011578497394763</v>
       </c>
       <c r="J9">
-        <v>0.9997670481272509</v>
+        <v>0.9530243019454193</v>
       </c>
       <c r="K9">
-        <v>1.000058534014671</v>
+        <v>1.01204170093717</v>
       </c>
       <c r="L9">
-        <v>1.000058072433146</v>
+        <v>1.011578497394763</v>
       </c>
       <c r="M9">
-        <v>0.9999125602801986</v>
+        <v>0.9823013996700909</v>
       </c>
       <c r="N9">
-        <v>0.9999125602801986</v>
+        <v>0.9823013996700909</v>
       </c>
       <c r="O9">
-        <v>0.9998990348142587</v>
+        <v>0.9796244542798438</v>
       </c>
       <c r="P9">
-        <v>0.9999612181916894</v>
+        <v>0.9922148334257838</v>
       </c>
       <c r="Q9">
-        <v>0.9999612181916894</v>
+        <v>0.9922148334257838</v>
       </c>
       <c r="R9">
-        <v>0.9999855471474347</v>
+        <v>0.9971715503036302</v>
       </c>
       <c r="S9">
-        <v>0.9999855471474347</v>
+        <v>0.9971715503036302</v>
       </c>
       <c r="T9">
-        <v>0.9999947699987177</v>
+        <v>0.9989027251749126</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000125755062292</v>
+        <v>1.01171353784634</v>
       </c>
       <c r="D10">
-        <v>1.000125763373497</v>
+        <v>1.012041915314152</v>
       </c>
       <c r="E10">
-        <v>1.000335345630411</v>
+        <v>1.030787529172778</v>
       </c>
       <c r="F10">
-        <v>0.9997233349217752</v>
+        <v>0.9742705562551589</v>
       </c>
       <c r="G10">
-        <v>1.000125763373497</v>
+        <v>1.012041915314152</v>
       </c>
       <c r="H10">
-        <v>0.9994969670654635</v>
+        <v>0.9530241699734117</v>
       </c>
       <c r="I10">
-        <v>1.000125753255337</v>
+        <v>1.01157842953993</v>
       </c>
       <c r="J10">
-        <v>0.9994969670654635</v>
+        <v>0.9530241699734117</v>
       </c>
       <c r="K10">
-        <v>1.000125763373497</v>
+        <v>1.012041915314152</v>
       </c>
       <c r="L10">
-        <v>1.000125753255337</v>
+        <v>1.01157842953993</v>
       </c>
       <c r="M10">
-        <v>0.9998113601604002</v>
+        <v>0.9823012997566709</v>
       </c>
       <c r="N10">
-        <v>0.9998113601604002</v>
+        <v>0.9823012997566709</v>
       </c>
       <c r="O10">
-        <v>0.9997820184141918</v>
+        <v>0.9796243852561669</v>
       </c>
       <c r="P10">
-        <v>0.9999161612314325</v>
+        <v>0.9922148382758312</v>
       </c>
       <c r="Q10">
-        <v>0.9999161612314325</v>
+        <v>0.9922148382758312</v>
       </c>
       <c r="R10">
-        <v>0.9999685617669485</v>
+        <v>0.9971716075354113</v>
       </c>
       <c r="S10">
-        <v>0.9999685617669485</v>
+        <v>0.9971716075354113</v>
       </c>
       <c r="T10">
-        <v>0.9999888198847958</v>
+        <v>0.9989026896836285</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000210721858338</v>
+        <v>1.000249577480716</v>
       </c>
       <c r="D11">
-        <v>1.000212497486396</v>
+        <v>1.000255852544417</v>
       </c>
       <c r="E11">
-        <v>1.000559515131581</v>
+        <v>1.000656976050994</v>
       </c>
       <c r="F11">
-        <v>0.9995366239171529</v>
+        <v>0.9994516972557508</v>
       </c>
       <c r="G11">
-        <v>1.000212497486396</v>
+        <v>1.000255852544417</v>
       </c>
       <c r="H11">
-        <v>0.9991564469018445</v>
+        <v>0.9989993582114883</v>
       </c>
       <c r="I11">
-        <v>1.000209995110136</v>
+        <v>1.000246996694265</v>
       </c>
       <c r="J11">
-        <v>0.9991564469018445</v>
+        <v>0.9989993582114883</v>
       </c>
       <c r="K11">
-        <v>1.000212497486396</v>
+        <v>1.000255852544417</v>
       </c>
       <c r="L11">
-        <v>1.000209995110136</v>
+        <v>1.000246996694265</v>
       </c>
       <c r="M11">
-        <v>0.9996832210059903</v>
+        <v>0.9996231774528765</v>
       </c>
       <c r="N11">
-        <v>0.9996832210059903</v>
+        <v>0.9996231774528765</v>
       </c>
       <c r="O11">
-        <v>0.9996343553097112</v>
+        <v>0.9995660173871679</v>
       </c>
       <c r="P11">
-        <v>0.9998596464994588</v>
+        <v>0.9998340691500568</v>
       </c>
       <c r="Q11">
-        <v>0.9998596464994587</v>
+        <v>0.9998340691500568</v>
       </c>
       <c r="R11">
-        <v>0.999947859246193</v>
+        <v>0.999939514998647</v>
       </c>
       <c r="S11">
-        <v>0.999947859246193</v>
+        <v>0.999939514998647</v>
       </c>
       <c r="T11">
-        <v>0.9999809667342413</v>
+        <v>0.9999767430396052</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9970235420755293</v>
+        <v>1.000151628200579</v>
       </c>
       <c r="D12">
-        <v>0.9970373435804138</v>
+        <v>1.000154619275362</v>
       </c>
       <c r="E12">
-        <v>0.9920439098363573</v>
+        <v>1.000400262123763</v>
       </c>
       <c r="F12">
-        <v>1.006549913773344</v>
+        <v>0.9996667827196779</v>
       </c>
       <c r="G12">
-        <v>0.9970373435804138</v>
+        <v>1.000154619275362</v>
       </c>
       <c r="H12">
-        <v>1.011900739234415</v>
+        <v>0.9993923724303354</v>
       </c>
       <c r="I12">
-        <v>0.9970178570257232</v>
+        <v>1.0001503983549</v>
       </c>
       <c r="J12">
-        <v>1.011900739234415</v>
+        <v>0.9993923724303354</v>
       </c>
       <c r="K12">
-        <v>0.9970373435804138</v>
+        <v>1.000154619275362</v>
       </c>
       <c r="L12">
-        <v>0.9970178570257232</v>
+        <v>1.0001503983549</v>
       </c>
       <c r="M12">
-        <v>1.004459298130069</v>
+        <v>0.999771385392618</v>
       </c>
       <c r="N12">
-        <v>1.004459298130069</v>
+        <v>0.999771385392618</v>
       </c>
       <c r="O12">
-        <v>1.005156170011161</v>
+        <v>0.9997365178349713</v>
       </c>
       <c r="P12">
-        <v>1.001985313280184</v>
+        <v>0.9998991300201995</v>
       </c>
       <c r="Q12">
-        <v>1.001985313280184</v>
+        <v>0.9998991300201995</v>
       </c>
       <c r="R12">
-        <v>1.000748320855242</v>
+        <v>0.9999630023339902</v>
       </c>
       <c r="S12">
-        <v>1.000748320855242</v>
+        <v>0.9999630023339902</v>
       </c>
       <c r="T12">
-        <v>1.000262217587631</v>
+        <v>0.9999860105174362</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9992274725860867</v>
+        <v>1.000506408520064</v>
       </c>
       <c r="D13">
-        <v>0.9992211241281937</v>
+        <v>1.000515687485196</v>
       </c>
       <c r="E13">
-        <v>0.9979485986214079</v>
+        <v>1.00133774952767</v>
       </c>
       <c r="F13">
-        <v>1.001698778897178</v>
+        <v>0.9988870424028196</v>
       </c>
       <c r="G13">
-        <v>0.9992211241281937</v>
+        <v>1.000515687485196</v>
       </c>
       <c r="H13">
-        <v>1.003092467888098</v>
+        <v>0.9979709284124042</v>
       </c>
       <c r="I13">
-        <v>0.9992300831470612</v>
+        <v>1.000502593854549</v>
       </c>
       <c r="J13">
-        <v>1.003092467888098</v>
+        <v>0.9979709284124042</v>
       </c>
       <c r="K13">
-        <v>0.9992211241281937</v>
+        <v>1.000515687485196</v>
       </c>
       <c r="L13">
-        <v>0.9992300831470612</v>
+        <v>1.000502593854549</v>
       </c>
       <c r="M13">
-        <v>1.00116127551758</v>
+        <v>0.9992367611334765</v>
       </c>
       <c r="N13">
-        <v>1.00116127551758</v>
+        <v>0.9992367611334765</v>
       </c>
       <c r="O13">
-        <v>1.001340443310779</v>
+        <v>0.9991201882232575</v>
       </c>
       <c r="P13">
-        <v>1.000514558387785</v>
+        <v>0.999663069917383</v>
       </c>
       <c r="Q13">
-        <v>1.000514558387784</v>
+        <v>0.999663069917383</v>
       </c>
       <c r="R13">
-        <v>1.000191199822887</v>
+        <v>0.9998762243093362</v>
       </c>
       <c r="S13">
-        <v>1.000191199822887</v>
+        <v>0.9998762243093362</v>
       </c>
       <c r="T13">
-        <v>1.000069754211337</v>
+        <v>0.9999534017004504</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9906687327933373</v>
+        <v>1.000532930014123</v>
       </c>
       <c r="D14">
-        <v>0.9904424245314536</v>
+        <v>1.000542183573889</v>
       </c>
       <c r="E14">
-        <v>0.97542581761095</v>
+        <v>1.00140850896293</v>
       </c>
       <c r="F14">
-        <v>1.020500958329837</v>
+        <v>0.998828696189821</v>
       </c>
       <c r="G14">
-        <v>0.9904424245314536</v>
+        <v>1.000542183573889</v>
       </c>
       <c r="H14">
-        <v>1.037408880011357</v>
+        <v>0.9978648563188924</v>
       </c>
       <c r="I14">
-        <v>0.9907618649600245</v>
+        <v>1.00052912611183</v>
       </c>
       <c r="J14">
-        <v>1.037408880011357</v>
+        <v>0.9978648563188924</v>
       </c>
       <c r="K14">
-        <v>0.9904424245314536</v>
+        <v>1.000542183573889</v>
       </c>
       <c r="L14">
-        <v>0.9907618649600245</v>
+        <v>1.00052912611183</v>
       </c>
       <c r="M14">
-        <v>1.01408537248569</v>
+        <v>0.9991969912153613</v>
       </c>
       <c r="N14">
-        <v>1.01408537248569</v>
+        <v>0.9991969912153613</v>
       </c>
       <c r="O14">
-        <v>1.016223901100406</v>
+        <v>0.9990742262068478</v>
       </c>
       <c r="P14">
-        <v>1.006204389834278</v>
+        <v>0.9996453886682038</v>
       </c>
       <c r="Q14">
-        <v>1.006204389834278</v>
+        <v>0.9996453886682038</v>
       </c>
       <c r="R14">
-        <v>1.002263898508572</v>
+        <v>0.9998695873946251</v>
       </c>
       <c r="S14">
-        <v>1.002263898508572</v>
+        <v>0.9998695873946251</v>
       </c>
       <c r="T14">
-        <v>1.000868113039493</v>
+        <v>0.9999510501952477</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9975199020681135</v>
+        <v>1.000190189011086</v>
       </c>
       <c r="D15">
-        <v>0.9976113671436374</v>
+        <v>1.000193701703543</v>
       </c>
       <c r="E15">
-        <v>0.9932614545863709</v>
+        <v>1.000502379490783</v>
       </c>
       <c r="F15">
-        <v>1.005467452870495</v>
+        <v>0.9995820129208107</v>
       </c>
       <c r="G15">
-        <v>0.9976113671436374</v>
+        <v>1.000193701703543</v>
       </c>
       <c r="H15">
-        <v>1.009886502223196</v>
+        <v>0.9992379362109776</v>
       </c>
       <c r="I15">
-        <v>0.9974822711396779</v>
+        <v>1.000188744779907</v>
       </c>
       <c r="J15">
-        <v>1.009886502223196</v>
+        <v>0.9992379362109776</v>
       </c>
       <c r="K15">
-        <v>0.9976113671436374</v>
+        <v>1.000193701703543</v>
       </c>
       <c r="L15">
-        <v>0.9974822711396779</v>
+        <v>1.000188744779907</v>
       </c>
       <c r="M15">
-        <v>1.003684386681437</v>
+        <v>0.9997133404954421</v>
       </c>
       <c r="N15">
-        <v>1.003684386681437</v>
+        <v>0.9997133404954421</v>
       </c>
       <c r="O15">
-        <v>1.004278742077789</v>
+        <v>0.9996695646372317</v>
       </c>
       <c r="P15">
-        <v>1.001660046835503</v>
+        <v>0.9998734608981424</v>
       </c>
       <c r="Q15">
-        <v>1.001660046835504</v>
+        <v>0.9998734608981424</v>
       </c>
       <c r="R15">
-        <v>1.000647876912537</v>
+        <v>0.9999535210994926</v>
       </c>
       <c r="S15">
-        <v>1.000647876912537</v>
+        <v>0.9999535210994926</v>
       </c>
       <c r="T15">
-        <v>1.000204825005248</v>
+        <v>0.9999824940195179</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.003709688220228</v>
+        <v>1.000367180343983</v>
       </c>
       <c r="D16">
-        <v>1.003768276483213</v>
+        <v>1.000374250039157</v>
       </c>
       <c r="E16">
-        <v>1.009812442688074</v>
+        <v>1.000969496776547</v>
       </c>
       <c r="F16">
-        <v>0.9918458994329447</v>
+        <v>0.9991930690019738</v>
       </c>
       <c r="G16">
-        <v>1.003768276483213</v>
+        <v>1.000374250039157</v>
       </c>
       <c r="H16">
-        <v>0.9851395646221123</v>
+        <v>0.9985286533184807</v>
       </c>
       <c r="I16">
-        <v>1.003685570008115</v>
+        <v>1.000364271840125</v>
       </c>
       <c r="J16">
-        <v>0.9851395646221123</v>
+        <v>0.9985286533184807</v>
       </c>
       <c r="K16">
-        <v>1.003768276483213</v>
+        <v>1.000374250039157</v>
       </c>
       <c r="L16">
-        <v>1.003685570008115</v>
+        <v>1.000364271840125</v>
       </c>
       <c r="M16">
-        <v>0.9944125673151134</v>
+        <v>0.9994464625793029</v>
       </c>
       <c r="N16">
-        <v>0.9944125673151134</v>
+        <v>0.9994464625793029</v>
       </c>
       <c r="O16">
-        <v>0.9935570113543905</v>
+        <v>0.9993619980535265</v>
       </c>
       <c r="P16">
-        <v>0.9975311370378135</v>
+        <v>0.999755725065921</v>
       </c>
       <c r="Q16">
-        <v>0.9975311370378135</v>
+        <v>0.999755725065921</v>
       </c>
       <c r="R16">
-        <v>0.9990904218991634</v>
+        <v>0.9999103563092301</v>
       </c>
       <c r="S16">
-        <v>0.9990904218991634</v>
+        <v>0.9999103563092301</v>
       </c>
       <c r="T16">
-        <v>0.999660240242448</v>
+        <v>0.9999661535533778</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.003036598671667</v>
+        <v>1.000703566991124</v>
       </c>
       <c r="D17">
-        <v>1.003066775362523</v>
+        <v>1.00071582483687</v>
       </c>
       <c r="E17">
-        <v>1.008056361684528</v>
+        <v>1.001859427403913</v>
       </c>
       <c r="F17">
-        <v>0.9933231982615862</v>
+        <v>0.998453662304909</v>
       </c>
       <c r="G17">
-        <v>1.003066775362523</v>
+        <v>1.00071582483687</v>
       </c>
       <c r="H17">
-        <v>0.9878424375128674</v>
+        <v>0.9971811932398634</v>
       </c>
       <c r="I17">
-        <v>1.003024175902291</v>
+        <v>1.000698519676488</v>
       </c>
       <c r="J17">
-        <v>0.9878424375128674</v>
+        <v>0.9971811932398634</v>
       </c>
       <c r="K17">
-        <v>1.003066775362523</v>
+        <v>1.00071582483687</v>
       </c>
       <c r="L17">
-        <v>1.003024175902291</v>
+        <v>1.000698519676488</v>
       </c>
       <c r="M17">
-        <v>0.995433306707579</v>
+        <v>0.998939856458176</v>
       </c>
       <c r="N17">
-        <v>0.995433306707579</v>
+        <v>0.998939856458176</v>
       </c>
       <c r="O17">
-        <v>0.9947299372255815</v>
+        <v>0.9987777917404204</v>
       </c>
       <c r="P17">
-        <v>0.9979777962592271</v>
+        <v>0.9995318459177408</v>
       </c>
       <c r="Q17">
-        <v>0.9979777962592271</v>
+        <v>0.9995318459177408</v>
       </c>
       <c r="R17">
-        <v>0.9992500410350511</v>
+        <v>0.9998278406475232</v>
       </c>
       <c r="S17">
-        <v>0.9992500410350511</v>
+        <v>0.9998278406475232</v>
       </c>
       <c r="T17">
-        <v>0.9997249245659102</v>
+        <v>0.9999353657421947</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00168745203685</v>
+        <v>1.001031859445234</v>
       </c>
       <c r="D18">
-        <v>1.00166186056566</v>
+        <v>1.001049293457343</v>
       </c>
       <c r="E18">
-        <v>1.004534857053091</v>
+        <v>1.002727842938732</v>
       </c>
       <c r="F18">
-        <v>0.9962844511461866</v>
+        <v>0.9977320327920671</v>
       </c>
       <c r="G18">
-        <v>1.00166186056566</v>
+        <v>1.001049293457343</v>
       </c>
       <c r="H18">
-        <v>0.9932596586092781</v>
+        <v>0.9958660874218971</v>
       </c>
       <c r="I18">
-        <v>1.001697989937179</v>
+        <v>1.001024701895676</v>
       </c>
       <c r="J18">
-        <v>0.9932596586092781</v>
+        <v>0.9958660874218971</v>
       </c>
       <c r="K18">
-        <v>1.00166186056566</v>
+        <v>1.001049293457343</v>
       </c>
       <c r="L18">
-        <v>1.001697989937179</v>
+        <v>1.001024701895676</v>
       </c>
       <c r="M18">
-        <v>0.9974788242732284</v>
+        <v>0.9984453946587866</v>
       </c>
       <c r="N18">
-        <v>0.9974788242732284</v>
+        <v>0.9984453946587866</v>
       </c>
       <c r="O18">
-        <v>0.9970806998975478</v>
+        <v>0.9982076073698801</v>
       </c>
       <c r="P18">
-        <v>0.9988731697040389</v>
+        <v>0.9993133609249719</v>
       </c>
       <c r="Q18">
-        <v>0.9988731697040389</v>
+        <v>0.9993133609249719</v>
       </c>
       <c r="R18">
-        <v>0.9995703424194442</v>
+        <v>0.9997473440580646</v>
       </c>
       <c r="S18">
-        <v>0.9995703424194442</v>
+        <v>0.9997473440580646</v>
       </c>
       <c r="T18">
-        <v>0.9998543782247075</v>
+        <v>0.9999053029918247</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001879885755599</v>
+        <v>1.000014536128601</v>
       </c>
       <c r="D19">
-        <v>1.001841253452213</v>
+        <v>1.000014362471722</v>
       </c>
       <c r="E19">
-        <v>1.005065815306709</v>
+        <v>1.000039006835137</v>
       </c>
       <c r="F19">
-        <v>0.9958594979148939</v>
+        <v>0.9999679961965358</v>
       </c>
       <c r="G19">
-        <v>1.001841253452213</v>
+        <v>1.000014362471722</v>
       </c>
       <c r="H19">
-        <v>0.9924947611713172</v>
+        <v>0.9999419128367174</v>
       </c>
       <c r="I19">
-        <v>1.001895787793146</v>
+        <v>1.00001460867201</v>
       </c>
       <c r="J19">
-        <v>0.9924947611713172</v>
+        <v>0.9999419128367174</v>
       </c>
       <c r="K19">
-        <v>1.001841253452213</v>
+        <v>1.000014362471722</v>
       </c>
       <c r="L19">
-        <v>1.001895787793146</v>
+        <v>1.00001460867201</v>
       </c>
       <c r="M19">
-        <v>0.9971952744822317</v>
+        <v>0.9999782607543639</v>
       </c>
       <c r="N19">
-        <v>0.9971952744822317</v>
+        <v>0.9999782607543639</v>
       </c>
       <c r="O19">
-        <v>0.9967500156264525</v>
+        <v>0.9999748392350879</v>
       </c>
       <c r="P19">
-        <v>0.9987439341388921</v>
+        <v>0.9999902946601499</v>
       </c>
       <c r="Q19">
-        <v>0.9987439341388921</v>
+        <v>0.9999902946601499</v>
       </c>
       <c r="R19">
-        <v>0.9995182639672222</v>
+        <v>0.9999963116130428</v>
       </c>
       <c r="S19">
-        <v>0.9995182639672222</v>
+        <v>0.9999963116130428</v>
       </c>
       <c r="T19">
-        <v>0.999839500232313</v>
+        <v>0.9999987371901203</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000000632463225</v>
+        <v>1.000042152097903</v>
       </c>
       <c r="D20">
-        <v>0.9999985612467995</v>
+        <v>1.000041976598509</v>
       </c>
       <c r="E20">
-        <v>1.000004523734461</v>
+        <v>1.000112652979615</v>
       </c>
       <c r="F20">
-        <v>0.999998350589281</v>
+        <v>0.9999072404248761</v>
       </c>
       <c r="G20">
-        <v>0.9999985612467995</v>
+        <v>1.000041976598509</v>
       </c>
       <c r="H20">
-        <v>0.9999982297751245</v>
+        <v>0.9998314492516182</v>
       </c>
       <c r="I20">
-        <v>1.000001486060404</v>
+        <v>1.000042225706073</v>
       </c>
       <c r="J20">
-        <v>0.9999982297751245</v>
+        <v>0.9998314492516182</v>
       </c>
       <c r="K20">
-        <v>0.9999985612467995</v>
+        <v>1.000041976598509</v>
       </c>
       <c r="L20">
-        <v>1.000001486060404</v>
+        <v>1.000042225706073</v>
       </c>
       <c r="M20">
-        <v>0.9999998579177642</v>
+        <v>0.9999368374788455</v>
       </c>
       <c r="N20">
-        <v>0.9999998579177642</v>
+        <v>0.9999368374788455</v>
       </c>
       <c r="O20">
-        <v>0.9999993554749365</v>
+        <v>0.9999269717941891</v>
       </c>
       <c r="P20">
-        <v>0.9999994256941093</v>
+        <v>0.9999718838520666</v>
       </c>
       <c r="Q20">
-        <v>0.9999994256941093</v>
+        <v>0.9999718838520666</v>
       </c>
       <c r="R20">
-        <v>0.9999992095822818</v>
+        <v>0.9999894070386771</v>
       </c>
       <c r="S20">
-        <v>0.9999992095822818</v>
+        <v>0.9999894070386771</v>
       </c>
       <c r="T20">
-        <v>1.000000297311549</v>
+        <v>0.9999962828430989</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000016796834172</v>
+        <v>1.000058206159525</v>
       </c>
       <c r="D21">
-        <v>1.000019403453409</v>
+        <v>1.000058534014671</v>
       </c>
       <c r="E21">
-        <v>1.000041239295459</v>
+        <v>1.000154775375334</v>
       </c>
       <c r="F21">
-        <v>0.9999633638072571</v>
+        <v>0.999871983882379</v>
       </c>
       <c r="G21">
-        <v>1.000019403453409</v>
+        <v>1.000058534014671</v>
       </c>
       <c r="H21">
-        <v>0.9999318391141585</v>
+        <v>0.9997670481272509</v>
       </c>
       <c r="I21">
-        <v>1.00001572572152</v>
+        <v>1.000058072433146</v>
       </c>
       <c r="J21">
-        <v>0.9999318391141585</v>
+        <v>0.9997670481272509</v>
       </c>
       <c r="K21">
-        <v>1.000019403453409</v>
+        <v>1.000058534014671</v>
       </c>
       <c r="L21">
-        <v>1.00001572572152</v>
+        <v>1.000058072433146</v>
       </c>
       <c r="M21">
-        <v>0.9999737824178392</v>
+        <v>0.9999125602801986</v>
       </c>
       <c r="N21">
-        <v>0.9999737824178392</v>
+        <v>0.9999125602801986</v>
       </c>
       <c r="O21">
-        <v>0.9999703095476452</v>
+        <v>0.9998990348142587</v>
       </c>
       <c r="P21">
-        <v>0.9999889894296957</v>
+        <v>0.9999612181916894</v>
       </c>
       <c r="Q21">
-        <v>0.9999889894296957</v>
+        <v>0.9999612181916894</v>
       </c>
       <c r="R21">
-        <v>0.999996592935624</v>
+        <v>0.9999855471474347</v>
       </c>
       <c r="S21">
-        <v>0.999996592935624</v>
+        <v>0.9999855471474347</v>
       </c>
       <c r="T21">
-        <v>0.999998061370996</v>
+        <v>0.9999947699987177</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000058146405786</v>
+        <v>1.000125755062292</v>
       </c>
       <c r="D22">
-        <v>1.000053610503605</v>
+        <v>1.000125763373497</v>
       </c>
       <c r="E22">
-        <v>1.000161280529136</v>
+        <v>1.000335345630411</v>
       </c>
       <c r="F22">
-        <v>0.9998715130813893</v>
+        <v>0.9997233349217752</v>
       </c>
       <c r="G22">
-        <v>1.000053610503605</v>
+        <v>1.000125763373497</v>
       </c>
       <c r="H22">
-        <v>0.9997690791812543</v>
+        <v>0.9994969670654635</v>
       </c>
       <c r="I22">
-        <v>1.00006002062316</v>
+        <v>1.000125753255337</v>
       </c>
       <c r="J22">
-        <v>0.9997690791812543</v>
+        <v>0.9994969670654635</v>
       </c>
       <c r="K22">
-        <v>1.000053610503605</v>
+        <v>1.000125763373497</v>
       </c>
       <c r="L22">
-        <v>1.00006002062316</v>
+        <v>1.000125753255337</v>
       </c>
       <c r="M22">
-        <v>0.9999145499022074</v>
+        <v>0.9998113601604002</v>
       </c>
       <c r="N22">
-        <v>0.9999145499022074</v>
+        <v>0.9998113601604002</v>
       </c>
       <c r="O22">
-        <v>0.999900204295268</v>
+        <v>0.9997820184141918</v>
       </c>
       <c r="P22">
-        <v>0.9999609034360066</v>
+        <v>0.9999161612314325</v>
       </c>
       <c r="Q22">
-        <v>0.9999609034360066</v>
+        <v>0.9999161612314325</v>
       </c>
       <c r="R22">
-        <v>0.9999840802029063</v>
+        <v>0.9999685617669485</v>
       </c>
       <c r="S22">
-        <v>0.9999840802029063</v>
+        <v>0.9999685617669485</v>
       </c>
       <c r="T22">
-        <v>0.9999956083873883</v>
+        <v>0.9999888198847958</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000210721858338</v>
+      </c>
+      <c r="D23">
+        <v>1.000212497486396</v>
+      </c>
+      <c r="E23">
+        <v>1.000559515131581</v>
+      </c>
+      <c r="F23">
+        <v>0.9995366239171529</v>
+      </c>
+      <c r="G23">
+        <v>1.000212497486396</v>
+      </c>
+      <c r="H23">
+        <v>0.9991564469018445</v>
+      </c>
+      <c r="I23">
+        <v>1.000209995110136</v>
+      </c>
+      <c r="J23">
+        <v>0.9991564469018445</v>
+      </c>
+      <c r="K23">
+        <v>1.000212497486396</v>
+      </c>
+      <c r="L23">
+        <v>1.000209995110136</v>
+      </c>
+      <c r="M23">
+        <v>0.9996832210059903</v>
+      </c>
+      <c r="N23">
+        <v>0.9996832210059903</v>
+      </c>
+      <c r="O23">
+        <v>0.9996343553097112</v>
+      </c>
+      <c r="P23">
+        <v>0.9998596464994588</v>
+      </c>
+      <c r="Q23">
+        <v>0.9998596464994587</v>
+      </c>
+      <c r="R23">
+        <v>0.999947859246193</v>
+      </c>
+      <c r="S23">
+        <v>0.999947859246193</v>
+      </c>
+      <c r="T23">
+        <v>0.9999809667342413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9970235420755293</v>
+      </c>
+      <c r="D24">
+        <v>0.9970373435804138</v>
+      </c>
+      <c r="E24">
+        <v>0.9920439098363573</v>
+      </c>
+      <c r="F24">
+        <v>1.006549913773344</v>
+      </c>
+      <c r="G24">
+        <v>0.9970373435804138</v>
+      </c>
+      <c r="H24">
+        <v>1.011900739234415</v>
+      </c>
+      <c r="I24">
+        <v>0.9970178570257232</v>
+      </c>
+      <c r="J24">
+        <v>1.011900739234415</v>
+      </c>
+      <c r="K24">
+        <v>0.9970373435804138</v>
+      </c>
+      <c r="L24">
+        <v>0.9970178570257232</v>
+      </c>
+      <c r="M24">
+        <v>1.004459298130069</v>
+      </c>
+      <c r="N24">
+        <v>1.004459298130069</v>
+      </c>
+      <c r="O24">
+        <v>1.005156170011161</v>
+      </c>
+      <c r="P24">
+        <v>1.001985313280184</v>
+      </c>
+      <c r="Q24">
+        <v>1.001985313280184</v>
+      </c>
+      <c r="R24">
+        <v>1.000748320855242</v>
+      </c>
+      <c r="S24">
+        <v>1.000748320855242</v>
+      </c>
+      <c r="T24">
+        <v>1.000262217587631</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9992274725860867</v>
+      </c>
+      <c r="D25">
+        <v>0.9992211241281937</v>
+      </c>
+      <c r="E25">
+        <v>0.9979485986214079</v>
+      </c>
+      <c r="F25">
+        <v>1.001698778897178</v>
+      </c>
+      <c r="G25">
+        <v>0.9992211241281937</v>
+      </c>
+      <c r="H25">
+        <v>1.003092467888098</v>
+      </c>
+      <c r="I25">
+        <v>0.9992300831470612</v>
+      </c>
+      <c r="J25">
+        <v>1.003092467888098</v>
+      </c>
+      <c r="K25">
+        <v>0.9992211241281937</v>
+      </c>
+      <c r="L25">
+        <v>0.9992300831470612</v>
+      </c>
+      <c r="M25">
+        <v>1.00116127551758</v>
+      </c>
+      <c r="N25">
+        <v>1.00116127551758</v>
+      </c>
+      <c r="O25">
+        <v>1.001340443310779</v>
+      </c>
+      <c r="P25">
+        <v>1.000514558387785</v>
+      </c>
+      <c r="Q25">
+        <v>1.000514558387784</v>
+      </c>
+      <c r="R25">
+        <v>1.000191199822887</v>
+      </c>
+      <c r="S25">
+        <v>1.000191199822887</v>
+      </c>
+      <c r="T25">
+        <v>1.000069754211337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9906687327933373</v>
+      </c>
+      <c r="D26">
+        <v>0.9904424245314536</v>
+      </c>
+      <c r="E26">
+        <v>0.97542581761095</v>
+      </c>
+      <c r="F26">
+        <v>1.020500958329837</v>
+      </c>
+      <c r="G26">
+        <v>0.9904424245314536</v>
+      </c>
+      <c r="H26">
+        <v>1.037408880011357</v>
+      </c>
+      <c r="I26">
+        <v>0.9907618649600245</v>
+      </c>
+      <c r="J26">
+        <v>1.037408880011357</v>
+      </c>
+      <c r="K26">
+        <v>0.9904424245314536</v>
+      </c>
+      <c r="L26">
+        <v>0.9907618649600245</v>
+      </c>
+      <c r="M26">
+        <v>1.01408537248569</v>
+      </c>
+      <c r="N26">
+        <v>1.01408537248569</v>
+      </c>
+      <c r="O26">
+        <v>1.016223901100406</v>
+      </c>
+      <c r="P26">
+        <v>1.006204389834278</v>
+      </c>
+      <c r="Q26">
+        <v>1.006204389834278</v>
+      </c>
+      <c r="R26">
+        <v>1.002263898508572</v>
+      </c>
+      <c r="S26">
+        <v>1.002263898508572</v>
+      </c>
+      <c r="T26">
+        <v>1.000868113039493</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9975199020681135</v>
+      </c>
+      <c r="D27">
+        <v>0.9976113671436374</v>
+      </c>
+      <c r="E27">
+        <v>0.9932614545863709</v>
+      </c>
+      <c r="F27">
+        <v>1.005467452870495</v>
+      </c>
+      <c r="G27">
+        <v>0.9976113671436374</v>
+      </c>
+      <c r="H27">
+        <v>1.009886502223196</v>
+      </c>
+      <c r="I27">
+        <v>0.9974822711396779</v>
+      </c>
+      <c r="J27">
+        <v>1.009886502223196</v>
+      </c>
+      <c r="K27">
+        <v>0.9976113671436374</v>
+      </c>
+      <c r="L27">
+        <v>0.9974822711396779</v>
+      </c>
+      <c r="M27">
+        <v>1.003684386681437</v>
+      </c>
+      <c r="N27">
+        <v>1.003684386681437</v>
+      </c>
+      <c r="O27">
+        <v>1.004278742077789</v>
+      </c>
+      <c r="P27">
+        <v>1.001660046835503</v>
+      </c>
+      <c r="Q27">
+        <v>1.001660046835504</v>
+      </c>
+      <c r="R27">
+        <v>1.000647876912537</v>
+      </c>
+      <c r="S27">
+        <v>1.000647876912537</v>
+      </c>
+      <c r="T27">
+        <v>1.000204825005248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.003709688220228</v>
+      </c>
+      <c r="D28">
+        <v>1.003768276483213</v>
+      </c>
+      <c r="E28">
+        <v>1.009812442688074</v>
+      </c>
+      <c r="F28">
+        <v>0.9918458994329447</v>
+      </c>
+      <c r="G28">
+        <v>1.003768276483213</v>
+      </c>
+      <c r="H28">
+        <v>0.9851395646221123</v>
+      </c>
+      <c r="I28">
+        <v>1.003685570008115</v>
+      </c>
+      <c r="J28">
+        <v>0.9851395646221123</v>
+      </c>
+      <c r="K28">
+        <v>1.003768276483213</v>
+      </c>
+      <c r="L28">
+        <v>1.003685570008115</v>
+      </c>
+      <c r="M28">
+        <v>0.9944125673151134</v>
+      </c>
+      <c r="N28">
+        <v>0.9944125673151134</v>
+      </c>
+      <c r="O28">
+        <v>0.9935570113543905</v>
+      </c>
+      <c r="P28">
+        <v>0.9975311370378135</v>
+      </c>
+      <c r="Q28">
+        <v>0.9975311370378135</v>
+      </c>
+      <c r="R28">
+        <v>0.9990904218991634</v>
+      </c>
+      <c r="S28">
+        <v>0.9990904218991634</v>
+      </c>
+      <c r="T28">
+        <v>0.999660240242448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.003036598671667</v>
+      </c>
+      <c r="D29">
+        <v>1.003066775362523</v>
+      </c>
+      <c r="E29">
+        <v>1.008056361684528</v>
+      </c>
+      <c r="F29">
+        <v>0.9933231982615862</v>
+      </c>
+      <c r="G29">
+        <v>1.003066775362523</v>
+      </c>
+      <c r="H29">
+        <v>0.9878424375128674</v>
+      </c>
+      <c r="I29">
+        <v>1.003024175902291</v>
+      </c>
+      <c r="J29">
+        <v>0.9878424375128674</v>
+      </c>
+      <c r="K29">
+        <v>1.003066775362523</v>
+      </c>
+      <c r="L29">
+        <v>1.003024175902291</v>
+      </c>
+      <c r="M29">
+        <v>0.995433306707579</v>
+      </c>
+      <c r="N29">
+        <v>0.995433306707579</v>
+      </c>
+      <c r="O29">
+        <v>0.9947299372255815</v>
+      </c>
+      <c r="P29">
+        <v>0.9979777962592271</v>
+      </c>
+      <c r="Q29">
+        <v>0.9979777962592271</v>
+      </c>
+      <c r="R29">
+        <v>0.9992500410350511</v>
+      </c>
+      <c r="S29">
+        <v>0.9992500410350511</v>
+      </c>
+      <c r="T29">
+        <v>0.9997249245659102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.00168745203685</v>
+      </c>
+      <c r="D30">
+        <v>1.00166186056566</v>
+      </c>
+      <c r="E30">
+        <v>1.004534857053091</v>
+      </c>
+      <c r="F30">
+        <v>0.9962844511461866</v>
+      </c>
+      <c r="G30">
+        <v>1.00166186056566</v>
+      </c>
+      <c r="H30">
+        <v>0.9932596586092781</v>
+      </c>
+      <c r="I30">
+        <v>1.001697989937179</v>
+      </c>
+      <c r="J30">
+        <v>0.9932596586092781</v>
+      </c>
+      <c r="K30">
+        <v>1.00166186056566</v>
+      </c>
+      <c r="L30">
+        <v>1.001697989937179</v>
+      </c>
+      <c r="M30">
+        <v>0.9974788242732284</v>
+      </c>
+      <c r="N30">
+        <v>0.9974788242732284</v>
+      </c>
+      <c r="O30">
+        <v>0.9970806998975478</v>
+      </c>
+      <c r="P30">
+        <v>0.9988731697040389</v>
+      </c>
+      <c r="Q30">
+        <v>0.9988731697040389</v>
+      </c>
+      <c r="R30">
+        <v>0.9995703424194442</v>
+      </c>
+      <c r="S30">
+        <v>0.9995703424194442</v>
+      </c>
+      <c r="T30">
+        <v>0.9998543782247075</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.001879885755599</v>
+      </c>
+      <c r="D31">
+        <v>1.001841253452213</v>
+      </c>
+      <c r="E31">
+        <v>1.005065815306709</v>
+      </c>
+      <c r="F31">
+        <v>0.9958594979148939</v>
+      </c>
+      <c r="G31">
+        <v>1.001841253452213</v>
+      </c>
+      <c r="H31">
+        <v>0.9924947611713172</v>
+      </c>
+      <c r="I31">
+        <v>1.001895787793146</v>
+      </c>
+      <c r="J31">
+        <v>0.9924947611713172</v>
+      </c>
+      <c r="K31">
+        <v>1.001841253452213</v>
+      </c>
+      <c r="L31">
+        <v>1.001895787793146</v>
+      </c>
+      <c r="M31">
+        <v>0.9971952744822317</v>
+      </c>
+      <c r="N31">
+        <v>0.9971952744822317</v>
+      </c>
+      <c r="O31">
+        <v>0.9967500156264525</v>
+      </c>
+      <c r="P31">
+        <v>0.9987439341388921</v>
+      </c>
+      <c r="Q31">
+        <v>0.9987439341388921</v>
+      </c>
+      <c r="R31">
+        <v>0.9995182639672222</v>
+      </c>
+      <c r="S31">
+        <v>0.9995182639672222</v>
+      </c>
+      <c r="T31">
+        <v>0.999839500232313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.004490844109589</v>
+      </c>
+      <c r="D32">
+        <v>1.00458872109589</v>
+      </c>
+      <c r="E32">
+        <v>1.011841841643836</v>
+      </c>
+      <c r="F32">
+        <v>0.9901321912328764</v>
+      </c>
+      <c r="G32">
+        <v>1.00458872109589</v>
+      </c>
+      <c r="H32">
+        <v>0.9820003961643836</v>
+      </c>
+      <c r="I32">
+        <v>1.004450555068493</v>
+      </c>
+      <c r="J32">
+        <v>0.9820003961643836</v>
+      </c>
+      <c r="K32">
+        <v>1.00458872109589</v>
+      </c>
+      <c r="L32">
+        <v>1.004450555068493</v>
+      </c>
+      <c r="M32">
+        <v>0.9932254756164385</v>
+      </c>
+      <c r="N32">
+        <v>0.9932254756164385</v>
+      </c>
+      <c r="O32">
+        <v>0.9921943808219179</v>
+      </c>
+      <c r="P32">
+        <v>0.997013224109589</v>
+      </c>
+      <c r="Q32">
+        <v>0.997013224109589</v>
+      </c>
+      <c r="R32">
+        <v>0.9989070983561643</v>
+      </c>
+      <c r="S32">
+        <v>0.9989070983561643</v>
+      </c>
+      <c r="T32">
+        <v>0.9995840915525114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.005259675263158</v>
+      </c>
+      <c r="D33">
+        <v>1.004966342105263</v>
+      </c>
+      <c r="E33">
+        <v>1.014426588421053</v>
+      </c>
+      <c r="F33">
+        <v>0.9883926447368422</v>
+      </c>
+      <c r="G33">
+        <v>1.004966342105263</v>
+      </c>
+      <c r="H33">
+        <v>0.9790699431578948</v>
+      </c>
+      <c r="I33">
+        <v>1.005380393684211</v>
+      </c>
+      <c r="J33">
+        <v>0.9790699431578948</v>
+      </c>
+      <c r="K33">
+        <v>1.004966342105263</v>
+      </c>
+      <c r="L33">
+        <v>1.005380393684211</v>
+      </c>
+      <c r="M33">
+        <v>0.9922251684210526</v>
+      </c>
+      <c r="N33">
+        <v>0.9922251684210526</v>
+      </c>
+      <c r="O33">
+        <v>0.9909476605263158</v>
+      </c>
+      <c r="P33">
+        <v>0.9964722263157894</v>
+      </c>
+      <c r="Q33">
+        <v>0.9964722263157894</v>
+      </c>
+      <c r="R33">
+        <v>0.9985957552631577</v>
+      </c>
+      <c r="S33">
+        <v>0.9985957552631577</v>
+      </c>
+      <c r="T33">
+        <v>0.9995825978947369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.011711557894737</v>
+      </c>
+      <c r="D34">
+        <v>1.0120126</v>
+      </c>
+      <c r="E34">
+        <v>1.0308196</v>
+      </c>
+      <c r="F34">
+        <v>0.9742715484210523</v>
+      </c>
+      <c r="G34">
+        <v>1.0120126</v>
+      </c>
+      <c r="H34">
+        <v>0.95304221</v>
+      </c>
+      <c r="I34">
+        <v>1.0115877</v>
+      </c>
+      <c r="J34">
+        <v>0.95304221</v>
+      </c>
+      <c r="K34">
+        <v>1.0120126</v>
+      </c>
+      <c r="L34">
+        <v>1.0115877</v>
+      </c>
+      <c r="M34">
+        <v>0.982314955</v>
+      </c>
+      <c r="N34">
+        <v>0.982314955</v>
+      </c>
+      <c r="O34">
+        <v>0.9796338194736841</v>
+      </c>
+      <c r="P34">
+        <v>0.99221417</v>
+      </c>
+      <c r="Q34">
+        <v>0.99221417</v>
+      </c>
+      <c r="R34">
+        <v>0.9971637775</v>
+      </c>
+      <c r="S34">
+        <v>0.9971637775</v>
+      </c>
+      <c r="T34">
+        <v>0.9989075360526315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.006655957380839</v>
+      </c>
+      <c r="D35">
+        <v>1.006503170641839</v>
+      </c>
+      <c r="E35">
+        <v>1.017958020118601</v>
+      </c>
+      <c r="F35">
+        <v>0.9853380710090605</v>
+      </c>
+      <c r="G35">
+        <v>1.006503170641839</v>
+      </c>
+      <c r="H35">
+        <v>0.9734327091269868</v>
+      </c>
+      <c r="I35">
+        <v>1.006718849933738</v>
+      </c>
+      <c r="J35">
+        <v>0.9734327091269868</v>
+      </c>
+      <c r="K35">
+        <v>1.006503170641839</v>
+      </c>
+      <c r="L35">
+        <v>1.006718849933738</v>
+      </c>
+      <c r="M35">
+        <v>0.9900757795303622</v>
+      </c>
+      <c r="N35">
+        <v>0.9900757795303622</v>
+      </c>
+      <c r="O35">
+        <v>0.9884965433565949</v>
+      </c>
+      <c r="P35">
+        <v>0.9955515765675212</v>
+      </c>
+      <c r="Q35">
+        <v>0.9955515765675212</v>
+      </c>
+      <c r="R35">
+        <v>0.9982894750861008</v>
+      </c>
+      <c r="S35">
+        <v>0.9982894750861008</v>
+      </c>
+      <c r="T35">
+        <v>0.9994344630351774</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000000632463225</v>
+      </c>
+      <c r="D36">
+        <v>0.9999985612467995</v>
+      </c>
+      <c r="E36">
+        <v>1.000004523734461</v>
+      </c>
+      <c r="F36">
+        <v>0.999998350589281</v>
+      </c>
+      <c r="G36">
+        <v>0.9999985612467995</v>
+      </c>
+      <c r="H36">
+        <v>0.9999982297751245</v>
+      </c>
+      <c r="I36">
+        <v>1.000001486060404</v>
+      </c>
+      <c r="J36">
+        <v>0.9999982297751245</v>
+      </c>
+      <c r="K36">
+        <v>0.9999985612467995</v>
+      </c>
+      <c r="L36">
+        <v>1.000001486060404</v>
+      </c>
+      <c r="M36">
+        <v>0.9999998579177642</v>
+      </c>
+      <c r="N36">
+        <v>0.9999998579177642</v>
+      </c>
+      <c r="O36">
+        <v>0.9999993554749365</v>
+      </c>
+      <c r="P36">
+        <v>0.9999994256941093</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999994256941093</v>
+      </c>
+      <c r="R36">
+        <v>0.9999992095822818</v>
+      </c>
+      <c r="S36">
+        <v>0.9999992095822818</v>
+      </c>
+      <c r="T36">
+        <v>1.000000297311549</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000016796834172</v>
+      </c>
+      <c r="D37">
+        <v>1.000019403453409</v>
+      </c>
+      <c r="E37">
+        <v>1.000041239295459</v>
+      </c>
+      <c r="F37">
+        <v>0.9999633638072571</v>
+      </c>
+      <c r="G37">
+        <v>1.000019403453409</v>
+      </c>
+      <c r="H37">
+        <v>0.9999318391141585</v>
+      </c>
+      <c r="I37">
+        <v>1.00001572572152</v>
+      </c>
+      <c r="J37">
+        <v>0.9999318391141585</v>
+      </c>
+      <c r="K37">
+        <v>1.000019403453409</v>
+      </c>
+      <c r="L37">
+        <v>1.00001572572152</v>
+      </c>
+      <c r="M37">
+        <v>0.9999737824178392</v>
+      </c>
+      <c r="N37">
+        <v>0.9999737824178392</v>
+      </c>
+      <c r="O37">
+        <v>0.9999703095476452</v>
+      </c>
+      <c r="P37">
+        <v>0.9999889894296957</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999889894296957</v>
+      </c>
+      <c r="R37">
+        <v>0.999996592935624</v>
+      </c>
+      <c r="S37">
+        <v>0.999996592935624</v>
+      </c>
+      <c r="T37">
+        <v>0.999998061370996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000058146405786</v>
+      </c>
+      <c r="D38">
+        <v>1.000053610503605</v>
+      </c>
+      <c r="E38">
+        <v>1.000161280529136</v>
+      </c>
+      <c r="F38">
+        <v>0.9998715130813893</v>
+      </c>
+      <c r="G38">
+        <v>1.000053610503605</v>
+      </c>
+      <c r="H38">
+        <v>0.9997690791812543</v>
+      </c>
+      <c r="I38">
+        <v>1.00006002062316</v>
+      </c>
+      <c r="J38">
+        <v>0.9997690791812543</v>
+      </c>
+      <c r="K38">
+        <v>1.000053610503605</v>
+      </c>
+      <c r="L38">
+        <v>1.00006002062316</v>
+      </c>
+      <c r="M38">
+        <v>0.9999145499022074</v>
+      </c>
+      <c r="N38">
+        <v>0.9999145499022074</v>
+      </c>
+      <c r="O38">
+        <v>0.999900204295268</v>
+      </c>
+      <c r="P38">
+        <v>0.9999609034360066</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999609034360066</v>
+      </c>
+      <c r="R38">
+        <v>0.9999840802029063</v>
+      </c>
+      <c r="S38">
+        <v>0.9999840802029063</v>
+      </c>
+      <c r="T38">
+        <v>0.9999956083873883</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000135669896341</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000117258483913</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000386932993124</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9996992653307585</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000117258483913</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9994641434259636</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000143240085983</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9994641434259636</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000117258483913</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000143240085983</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9998036917559734</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9998036917559734</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9997688829475684</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9999082139986198</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9999082139986198</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999604751199431</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999604751199431</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.999991085036014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.004221116339365</v>
+      </c>
+      <c r="D40">
+        <v>1.004129734667328</v>
+      </c>
+      <c r="E40">
+        <v>1.01138117800467</v>
+      </c>
+      <c r="F40">
+        <v>0.9907023014496289</v>
+      </c>
+      <c r="G40">
+        <v>1.004129734667328</v>
+      </c>
+      <c r="H40">
+        <v>0.9831493707546165</v>
+      </c>
+      <c r="I40">
+        <v>1.004258724033913</v>
+      </c>
+      <c r="J40">
+        <v>0.9831493707546165</v>
+      </c>
+      <c r="K40">
+        <v>1.004129734667328</v>
+      </c>
+      <c r="L40">
+        <v>1.004258724033913</v>
+      </c>
+      <c r="M40">
+        <v>0.9937040473942647</v>
+      </c>
+      <c r="N40">
+        <v>0.9937040473942647</v>
+      </c>
+      <c r="O40">
+        <v>0.9927034654127195</v>
+      </c>
+      <c r="P40">
+        <v>0.9971792764852857</v>
+      </c>
+      <c r="Q40">
+        <v>0.9971792764852858</v>
+      </c>
+      <c r="R40">
+        <v>0.9989168910307964</v>
+      </c>
+      <c r="S40">
+        <v>0.9989168910307964</v>
+      </c>
+      <c r="T40">
+        <v>0.9996404042082535</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9999601352043858</v>
+      </c>
+      <c r="D41">
+        <v>0.9999720710461838</v>
+      </c>
+      <c r="E41">
+        <v>0.9998773943173438</v>
+      </c>
+      <c r="F41">
+        <v>1.000089166545325</v>
+      </c>
+      <c r="G41">
+        <v>0.9999720710461838</v>
+      </c>
+      <c r="H41">
+        <v>1.000155029550379</v>
+      </c>
+      <c r="I41">
+        <v>0.9999552233444988</v>
+      </c>
+      <c r="J41">
+        <v>1.000155029550379</v>
+      </c>
+      <c r="K41">
+        <v>0.9999720710461838</v>
+      </c>
+      <c r="L41">
+        <v>0.9999552233444988</v>
+      </c>
+      <c r="M41">
+        <v>1.000055126447439</v>
+      </c>
+      <c r="N41">
+        <v>1.000055126447439</v>
+      </c>
+      <c r="O41">
+        <v>1.000066473146734</v>
+      </c>
+      <c r="P41">
+        <v>1.000027441313687</v>
+      </c>
+      <c r="Q41">
+        <v>1.000027441313687</v>
+      </c>
+      <c r="R41">
+        <v>1.000013598746812</v>
+      </c>
+      <c r="S41">
+        <v>1.000013598746812</v>
+      </c>
+      <c r="T41">
+        <v>1.000001503334686</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.004222496703296</v>
+      </c>
+      <c r="D42">
+        <v>1.004123058859198</v>
+      </c>
+      <c r="E42">
+        <v>1.011395868945833</v>
+      </c>
+      <c r="F42">
+        <v>0.9906982724987465</v>
+      </c>
+      <c r="G42">
+        <v>1.004123058859198</v>
+      </c>
+      <c r="H42">
+        <v>0.9831468246713071</v>
+      </c>
+      <c r="I42">
+        <v>1.004263419103809</v>
+      </c>
+      <c r="J42">
+        <v>0.9831468246713071</v>
+      </c>
+      <c r="K42">
+        <v>1.004123058859198</v>
+      </c>
+      <c r="L42">
+        <v>1.004263419103809</v>
+      </c>
+      <c r="M42">
+        <v>0.9937051218875581</v>
+      </c>
+      <c r="N42">
+        <v>0.9937051218875581</v>
+      </c>
+      <c r="O42">
+        <v>0.9927028387579542</v>
+      </c>
+      <c r="P42">
+        <v>0.9971777675447714</v>
+      </c>
+      <c r="Q42">
+        <v>0.9971777675447714</v>
+      </c>
+      <c r="R42">
+        <v>0.998914090373378</v>
+      </c>
+      <c r="S42">
+        <v>0.998914090373378</v>
+      </c>
+      <c r="T42">
+        <v>0.9996416567970318</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW40.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,43 +85,40 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000193701703544</v>
+        <v>1.000042152097903</v>
       </c>
       <c r="D3">
-        <v>0.9992379362109776</v>
+        <v>1.000041976598509</v>
       </c>
       <c r="E3">
-        <v>1.000188744779907</v>
+        <v>1.000112652979615</v>
       </c>
       <c r="F3">
-        <v>1.000193701703544</v>
+        <v>0.9999072404248761</v>
       </c>
       <c r="G3">
-        <v>1.000502379490783</v>
+        <v>1.000041976598509</v>
       </c>
       <c r="H3">
-        <v>0.9995820129208107</v>
+        <v>0.9998314492516182</v>
       </c>
       <c r="I3">
-        <v>1.000190189011086</v>
+        <v>1.000042225706073</v>
       </c>
       <c r="J3">
-        <v>0.9992379362109776</v>
+        <v>0.9998314492516182</v>
       </c>
       <c r="K3">
-        <v>1.000193701703544</v>
+        <v>1.000041976598509</v>
       </c>
       <c r="L3">
-        <v>1.000188744779907</v>
+        <v>1.000042225706073</v>
       </c>
       <c r="M3">
-        <v>0.9997133404954421</v>
+        <v>0.9999368374788455</v>
       </c>
       <c r="N3">
-        <v>0.9997133404954421</v>
+        <v>0.9999368374788455</v>
       </c>
       <c r="O3">
-        <v>0.9996695646372317</v>
+        <v>0.9999269717941891</v>
       </c>
       <c r="P3">
-        <v>0.9998734608981427</v>
+        <v>0.9999718838520666</v>
       </c>
       <c r="Q3">
-        <v>0.9998734608981427</v>
+        <v>0.9999718838520666</v>
       </c>
       <c r="R3">
-        <v>0.9999535210994929</v>
+        <v>0.9999894070386771</v>
       </c>
       <c r="S3">
-        <v>0.9999535210994929</v>
+        <v>0.9999894070386771</v>
       </c>
       <c r="T3">
-        <v>0.999982494019518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999962828430989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000374250039157</v>
+        <v>1.004221116339365</v>
       </c>
       <c r="D4">
-        <v>0.9985286533184807</v>
+        <v>1.004129734667328</v>
       </c>
       <c r="E4">
-        <v>1.000364271840125</v>
+        <v>1.01138117800467</v>
       </c>
       <c r="F4">
-        <v>1.000374250039157</v>
+        <v>0.9907023014496289</v>
       </c>
       <c r="G4">
-        <v>1.000969496776547</v>
+        <v>1.004129734667328</v>
       </c>
       <c r="H4">
-        <v>0.9991930690019738</v>
+        <v>0.9831493707546165</v>
       </c>
       <c r="I4">
-        <v>1.000367180343983</v>
+        <v>1.004258724033913</v>
       </c>
       <c r="J4">
-        <v>0.9985286533184807</v>
+        <v>0.9831493707546165</v>
       </c>
       <c r="K4">
-        <v>1.000374250039157</v>
+        <v>1.004129734667328</v>
       </c>
       <c r="L4">
-        <v>1.000364271840125</v>
+        <v>1.004258724033913</v>
       </c>
       <c r="M4">
-        <v>0.9994464625793029</v>
+        <v>0.9937040473942647</v>
       </c>
       <c r="N4">
-        <v>0.9994464625793029</v>
+        <v>0.9937040473942647</v>
       </c>
       <c r="O4">
-        <v>0.9993619980535265</v>
+        <v>0.9927034654127195</v>
       </c>
       <c r="P4">
-        <v>0.9997557250659209</v>
+        <v>0.9971792764852857</v>
       </c>
       <c r="Q4">
-        <v>0.9997557250659209</v>
+        <v>0.9971792764852858</v>
       </c>
       <c r="R4">
-        <v>0.99991035630923</v>
+        <v>0.9989168910307964</v>
       </c>
       <c r="S4">
-        <v>0.99991035630923</v>
+        <v>0.9989168910307964</v>
       </c>
       <c r="T4">
-        <v>0.9999661535533777</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9996404042082535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.00071582483687</v>
+        <v>1.0021183309366</v>
       </c>
       <c r="D5">
-        <v>0.9971811932398634</v>
+        <v>1.002091901296829</v>
       </c>
       <c r="E5">
-        <v>1.000698519676488</v>
+        <v>1.005685002881846</v>
       </c>
       <c r="F5">
-        <v>1.00071582483687</v>
+        <v>0.9953364160374621</v>
       </c>
       <c r="G5">
-        <v>1.001859427403913</v>
+        <v>1.002091901296829</v>
       </c>
       <c r="H5">
-        <v>0.998453662304909</v>
+        <v>0.9915364556123937</v>
       </c>
       <c r="I5">
-        <v>1.000703566991124</v>
+        <v>1.002129210533143</v>
       </c>
       <c r="J5">
-        <v>0.9971811932398634</v>
+        <v>0.9915364556123937</v>
       </c>
       <c r="K5">
-        <v>1.00071582483687</v>
+        <v>1.002091901296829</v>
       </c>
       <c r="L5">
-        <v>1.000698519676488</v>
+        <v>1.002129210533143</v>
       </c>
       <c r="M5">
-        <v>0.998939856458176</v>
+        <v>0.9968328330727683</v>
       </c>
       <c r="N5">
-        <v>0.998939856458176</v>
+        <v>0.9968328330727683</v>
       </c>
       <c r="O5">
-        <v>0.9987777917404204</v>
+        <v>0.996334027394333</v>
       </c>
       <c r="P5">
-        <v>0.9995318459177408</v>
+        <v>0.998585855814122</v>
       </c>
       <c r="Q5">
-        <v>0.9995318459177408</v>
+        <v>0.9985858558141217</v>
       </c>
       <c r="R5">
-        <v>0.9998278406475232</v>
+        <v>0.9994623671847986</v>
       </c>
       <c r="S5">
-        <v>0.9998278406475232</v>
+        <v>0.9994623671847986</v>
       </c>
       <c r="T5">
-        <v>0.9999353657421947</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9998162195497122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.001049293457343</v>
+        <v>1.006655957380839</v>
       </c>
       <c r="D6">
-        <v>0.9958660874218971</v>
+        <v>1.006503170641839</v>
       </c>
       <c r="E6">
-        <v>1.001024701895676</v>
+        <v>1.017958020118601</v>
       </c>
       <c r="F6">
-        <v>1.001049293457343</v>
+        <v>0.9853380710090605</v>
       </c>
       <c r="G6">
-        <v>1.002727842938732</v>
+        <v>1.006503170641839</v>
       </c>
       <c r="H6">
-        <v>0.9977320327920671</v>
+        <v>0.9734327091269868</v>
       </c>
       <c r="I6">
-        <v>1.001031859445234</v>
+        <v>1.006718849933738</v>
       </c>
       <c r="J6">
-        <v>0.9958660874218971</v>
+        <v>0.9734327091269868</v>
       </c>
       <c r="K6">
-        <v>1.001049293457343</v>
+        <v>1.006503170641839</v>
       </c>
       <c r="L6">
-        <v>1.001024701895676</v>
+        <v>1.006718849933738</v>
       </c>
       <c r="M6">
-        <v>0.9984453946587866</v>
+        <v>0.9900757795303622</v>
       </c>
       <c r="N6">
-        <v>0.9984453946587866</v>
+        <v>0.9900757795303622</v>
       </c>
       <c r="O6">
-        <v>0.9982076073698801</v>
+        <v>0.9884965433565949</v>
       </c>
       <c r="P6">
-        <v>0.9993133609249719</v>
+        <v>0.9955515765675212</v>
       </c>
       <c r="Q6">
-        <v>0.9993133609249719</v>
+        <v>0.9955515765675212</v>
       </c>
       <c r="R6">
-        <v>0.9997473440580646</v>
+        <v>0.9982894750861008</v>
       </c>
       <c r="S6">
-        <v>0.9997473440580646</v>
+        <v>0.9982894750861008</v>
       </c>
       <c r="T6">
-        <v>0.9999053029918247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9994344630351774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000014362471722</v>
+        <v>1.000249577480716</v>
       </c>
       <c r="D7">
-        <v>0.9999419128367176</v>
+        <v>1.000255852544417</v>
       </c>
       <c r="E7">
-        <v>1.00001460867201</v>
+        <v>1.000656976050994</v>
       </c>
       <c r="F7">
-        <v>1.000014362471722</v>
+        <v>0.9994516972557508</v>
       </c>
       <c r="G7">
-        <v>1.000039006835137</v>
+        <v>1.000255852544417</v>
       </c>
       <c r="H7">
-        <v>0.9999679961965358</v>
+        <v>0.9989993582114883</v>
       </c>
       <c r="I7">
-        <v>1.0000145361286</v>
+        <v>1.000246996694265</v>
       </c>
       <c r="J7">
-        <v>0.9999419128367176</v>
+        <v>0.9989993582114883</v>
       </c>
       <c r="K7">
-        <v>1.000014362471722</v>
+        <v>1.000255852544417</v>
       </c>
       <c r="L7">
-        <v>1.00001460867201</v>
+        <v>1.000246996694265</v>
       </c>
       <c r="M7">
-        <v>0.9999782607543639</v>
+        <v>0.9996231774528765</v>
       </c>
       <c r="N7">
-        <v>0.9999782607543639</v>
+        <v>0.9996231774528765</v>
       </c>
       <c r="O7">
-        <v>0.9999748392350879</v>
+        <v>0.9995660173871679</v>
       </c>
       <c r="P7">
-        <v>0.9999902946601499</v>
+        <v>0.9998340691500568</v>
       </c>
       <c r="Q7">
-        <v>0.9999902946601499</v>
+        <v>0.9998340691500568</v>
       </c>
       <c r="R7">
-        <v>0.9999963116130428</v>
+        <v>0.999939514998647</v>
       </c>
       <c r="S7">
-        <v>0.9999963116130428</v>
+        <v>0.999939514998647</v>
       </c>
       <c r="T7">
-        <v>0.9999987371901206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999767430396052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000041976598509</v>
+        <v>1.000016796834172</v>
       </c>
       <c r="D8">
-        <v>0.9998314492516184</v>
+        <v>1.000019403453409</v>
       </c>
       <c r="E8">
-        <v>1.000042225706073</v>
+        <v>1.000041239295459</v>
       </c>
       <c r="F8">
-        <v>1.000041976598509</v>
+        <v>0.9999633638072571</v>
       </c>
       <c r="G8">
-        <v>1.000112652979615</v>
+        <v>1.000019403453409</v>
       </c>
       <c r="H8">
-        <v>0.9999072404248762</v>
+        <v>0.9999318391141585</v>
       </c>
       <c r="I8">
-        <v>1.000042152097903</v>
+        <v>1.00001572572152</v>
       </c>
       <c r="J8">
-        <v>0.9998314492516184</v>
+        <v>0.9999318391141585</v>
       </c>
       <c r="K8">
-        <v>1.000041976598509</v>
+        <v>1.000019403453409</v>
       </c>
       <c r="L8">
-        <v>1.000042225706073</v>
+        <v>1.00001572572152</v>
       </c>
       <c r="M8">
-        <v>0.9999368374788455</v>
+        <v>0.9999737824178392</v>
       </c>
       <c r="N8">
-        <v>0.9999368374788455</v>
+        <v>0.9999737824178392</v>
       </c>
       <c r="O8">
-        <v>0.9999269717941891</v>
+        <v>0.9999703095476452</v>
       </c>
       <c r="P8">
-        <v>0.9999718838520666</v>
+        <v>0.9999889894296957</v>
       </c>
       <c r="Q8">
-        <v>0.9999718838520666</v>
+        <v>0.9999889894296957</v>
       </c>
       <c r="R8">
-        <v>0.9999894070386772</v>
+        <v>0.999996592935624</v>
       </c>
       <c r="S8">
-        <v>0.9999894070386772</v>
+        <v>0.999996592935624</v>
       </c>
       <c r="T8">
-        <v>0.999996282843099</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.999998061370996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000058534014671</v>
+        <v>1.000367180343983</v>
       </c>
       <c r="D9">
-        <v>0.9997670481272509</v>
+        <v>1.000374250039157</v>
       </c>
       <c r="E9">
-        <v>1.000058072433146</v>
+        <v>1.000969496776547</v>
       </c>
       <c r="F9">
-        <v>1.000058534014671</v>
+        <v>0.9991930690019738</v>
       </c>
       <c r="G9">
-        <v>1.000154775375334</v>
+        <v>1.000374250039157</v>
       </c>
       <c r="H9">
-        <v>0.9998719838823791</v>
+        <v>0.9985286533184807</v>
       </c>
       <c r="I9">
-        <v>1.000058206159525</v>
+        <v>1.000364271840125</v>
       </c>
       <c r="J9">
-        <v>0.9997670481272509</v>
+        <v>0.9985286533184807</v>
       </c>
       <c r="K9">
-        <v>1.000058534014671</v>
+        <v>1.000374250039157</v>
       </c>
       <c r="L9">
-        <v>1.000058072433146</v>
+        <v>1.000364271840125</v>
       </c>
       <c r="M9">
-        <v>0.9999125602801986</v>
+        <v>0.9994464625793029</v>
       </c>
       <c r="N9">
-        <v>0.9999125602801986</v>
+        <v>0.9994464625793029</v>
       </c>
       <c r="O9">
-        <v>0.9998990348142588</v>
+        <v>0.9993619980535265</v>
       </c>
       <c r="P9">
-        <v>0.9999612181916894</v>
+        <v>0.999755725065921</v>
       </c>
       <c r="Q9">
-        <v>0.9999612181916894</v>
+        <v>0.999755725065921</v>
       </c>
       <c r="R9">
-        <v>0.9999855471474347</v>
+        <v>0.9999103563092301</v>
       </c>
       <c r="S9">
-        <v>0.9999855471474347</v>
+        <v>0.9999103563092301</v>
       </c>
       <c r="T9">
-        <v>0.9999947699987177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9999661535533778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000125763373497</v>
+        <v>1.006754638505855</v>
       </c>
       <c r="D10">
-        <v>0.9994969670654635</v>
+        <v>1.006597086986848</v>
       </c>
       <c r="E10">
-        <v>1.000125753255337</v>
+        <v>1.018227679222484</v>
       </c>
       <c r="F10">
-        <v>1.000125763373497</v>
+        <v>0.9851203864202547</v>
       </c>
       <c r="G10">
-        <v>1.000335345630411</v>
+        <v>1.006597086986848</v>
       </c>
       <c r="H10">
-        <v>0.9997233349217752</v>
+        <v>0.9730397501937882</v>
       </c>
       <c r="I10">
-        <v>1.000125755062292</v>
+        <v>1.006819492286745</v>
       </c>
       <c r="J10">
-        <v>0.9994969670654635</v>
+        <v>0.9730397501937882</v>
       </c>
       <c r="K10">
-        <v>1.000125763373497</v>
+        <v>1.006597086986848</v>
       </c>
       <c r="L10">
-        <v>1.000125753255337</v>
+        <v>1.006819492286745</v>
       </c>
       <c r="M10">
-        <v>0.9998113601604002</v>
+        <v>0.9899296212402667</v>
       </c>
       <c r="N10">
-        <v>0.9998113601604002</v>
+        <v>0.9899296212402667</v>
       </c>
       <c r="O10">
-        <v>0.9997820184141918</v>
+        <v>0.9883265429669293</v>
       </c>
       <c r="P10">
-        <v>0.9999161612314325</v>
+        <v>0.9954854431557939</v>
       </c>
       <c r="Q10">
-        <v>0.9999161612314325</v>
+        <v>0.9954854431557939</v>
       </c>
       <c r="R10">
-        <v>0.9999685617669485</v>
+        <v>0.9982633541135575</v>
       </c>
       <c r="S10">
-        <v>0.9999685617669485</v>
+        <v>0.9982633541135575</v>
       </c>
       <c r="T10">
-        <v>0.9999888198847958</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9994265056026626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000212497486396</v>
+        <v>1.004222063611952</v>
       </c>
       <c r="D11">
-        <v>0.9991564469018445</v>
+        <v>1.0041422913036</v>
       </c>
       <c r="E11">
-        <v>1.000209995110136</v>
+        <v>1.011367843729045</v>
       </c>
       <c r="F11">
-        <v>1.000212497486396</v>
+        <v>0.9907016445750482</v>
       </c>
       <c r="G11">
-        <v>1.000559515131581</v>
+        <v>1.0041422913036</v>
       </c>
       <c r="H11">
-        <v>0.9995366239171529</v>
+        <v>0.9831412800919087</v>
       </c>
       <c r="I11">
-        <v>1.000210721858338</v>
+        <v>1.004254892574463</v>
       </c>
       <c r="J11">
-        <v>0.9991564469018445</v>
+        <v>0.9831412800919087</v>
       </c>
       <c r="K11">
-        <v>1.000212497486396</v>
+        <v>1.0041422913036</v>
       </c>
       <c r="L11">
-        <v>1.000209995110136</v>
+        <v>1.004254892574463</v>
       </c>
       <c r="M11">
-        <v>0.9996832210059903</v>
+        <v>0.9936980863331857</v>
       </c>
       <c r="N11">
-        <v>0.9996832210059903</v>
+        <v>0.9936980863331857</v>
       </c>
       <c r="O11">
-        <v>0.9996343553097112</v>
+        <v>0.9926992724138065</v>
       </c>
       <c r="P11">
-        <v>0.9998596464994588</v>
+        <v>0.9971794879899903</v>
       </c>
       <c r="Q11">
-        <v>0.9998596464994587</v>
+        <v>0.9971794879899906</v>
       </c>
       <c r="R11">
-        <v>0.999947859246193</v>
+        <v>0.998920188818393</v>
       </c>
       <c r="S11">
-        <v>0.999947859246193</v>
+        <v>0.998920188818393</v>
       </c>
       <c r="T11">
-        <v>0.9999809667342413</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9996383359810026</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9970373435804138</v>
+        <v>1.002159530399999</v>
       </c>
       <c r="D12">
-        <v>1.011900739234415</v>
+        <v>1.002115393810525</v>
       </c>
       <c r="E12">
-        <v>0.9970178570257232</v>
+        <v>1.005819060505265</v>
       </c>
       <c r="F12">
-        <v>0.9970373435804138</v>
+        <v>0.9952435986736818</v>
       </c>
       <c r="G12">
-        <v>0.9920439098363573</v>
+        <v>1.002115393810525</v>
       </c>
       <c r="H12">
-        <v>1.006549913773344</v>
+        <v>0.9913782170947385</v>
       </c>
       <c r="I12">
-        <v>0.9970235420755293</v>
+        <v>1.002177698315791</v>
       </c>
       <c r="J12">
-        <v>1.011900739234415</v>
+        <v>0.9913782170947385</v>
       </c>
       <c r="K12">
-        <v>0.9970373435804138</v>
+        <v>1.002115393810525</v>
       </c>
       <c r="L12">
-        <v>0.9970178570257232</v>
+        <v>1.002177698315791</v>
       </c>
       <c r="M12">
-        <v>1.004459298130069</v>
+        <v>0.9967779577052649</v>
       </c>
       <c r="N12">
-        <v>1.004459298130069</v>
+        <v>0.9967779577052649</v>
       </c>
       <c r="O12">
-        <v>1.005156170011161</v>
+        <v>0.9962665046947373</v>
       </c>
       <c r="P12">
-        <v>1.001985313280184</v>
+        <v>0.9985571030736849</v>
       </c>
       <c r="Q12">
-        <v>1.001985313280184</v>
+        <v>0.9985571030736849</v>
       </c>
       <c r="R12">
-        <v>1.000748320855242</v>
+        <v>0.999446675757895</v>
       </c>
       <c r="S12">
-        <v>1.000748320855242</v>
+        <v>0.999446675757895</v>
       </c>
       <c r="T12">
-        <v>1.000262217587631</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9998155831333335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9992211241281937</v>
+        <v>0.9986694496332862</v>
       </c>
       <c r="D13">
-        <v>1.003092467888098</v>
+        <v>0.9986716396710293</v>
       </c>
       <c r="E13">
-        <v>0.9992300831470611</v>
+        <v>0.9964488802998999</v>
       </c>
       <c r="F13">
-        <v>0.9992211241281937</v>
+        <v>1.002927476750974</v>
       </c>
       <c r="G13">
-        <v>0.9979485986214078</v>
+        <v>0.9986716396710293</v>
       </c>
       <c r="H13">
-        <v>1.001698778897178</v>
+        <v>1.005321386560085</v>
       </c>
       <c r="I13">
-        <v>0.9992274725860867</v>
+        <v>0.998668550555279</v>
       </c>
       <c r="J13">
-        <v>1.003092467888098</v>
+        <v>1.005321386560085</v>
       </c>
       <c r="K13">
-        <v>0.9992211241281937</v>
+        <v>0.9986716396710293</v>
       </c>
       <c r="L13">
-        <v>0.9992300831470611</v>
+        <v>0.998668550555279</v>
       </c>
       <c r="M13">
-        <v>1.00116127551758</v>
+        <v>1.001994968557682</v>
       </c>
       <c r="N13">
-        <v>1.00116127551758</v>
+        <v>1.001994968557682</v>
       </c>
       <c r="O13">
-        <v>1.001340443310779</v>
+        <v>1.002305804622113</v>
       </c>
       <c r="P13">
-        <v>1.000514558387784</v>
+        <v>1.000887192262131</v>
       </c>
       <c r="Q13">
-        <v>1.000514558387784</v>
+        <v>1.000887192262131</v>
       </c>
       <c r="R13">
-        <v>1.000191199822887</v>
+        <v>1.000333304114356</v>
       </c>
       <c r="S13">
-        <v>1.000191199822887</v>
+        <v>1.000333304114356</v>
       </c>
       <c r="T13">
-        <v>1.000069754211337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000117897245092</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9904424245314533</v>
+        <v>1.0116696</v>
       </c>
       <c r="D14">
-        <v>1.037408880011357</v>
+        <v>1.0113912</v>
       </c>
       <c r="E14">
-        <v>0.9907618649600245</v>
+        <v>1.031499400000001</v>
       </c>
       <c r="F14">
-        <v>0.9904424245314533</v>
+        <v>0.9742925799999982</v>
       </c>
       <c r="G14">
-        <v>0.97542581761095</v>
+        <v>1.0113912</v>
       </c>
       <c r="H14">
-        <v>1.020500958329837</v>
+        <v>0.9534246200000004</v>
       </c>
       <c r="I14">
-        <v>0.9906687327933373</v>
+        <v>1.0117842</v>
       </c>
       <c r="J14">
-        <v>1.037408880011357</v>
+        <v>0.9534246200000004</v>
       </c>
       <c r="K14">
-        <v>0.9904424245314533</v>
+        <v>1.0113912</v>
       </c>
       <c r="L14">
-        <v>0.9907618649600245</v>
+        <v>1.0117842</v>
       </c>
       <c r="M14">
-        <v>1.01408537248569</v>
+        <v>0.9826044100000002</v>
       </c>
       <c r="N14">
-        <v>1.01408537248569</v>
+        <v>0.9826044100000002</v>
       </c>
       <c r="O14">
-        <v>1.016223901100406</v>
+        <v>0.9798337999999994</v>
       </c>
       <c r="P14">
-        <v>1.006204389834278</v>
+        <v>0.9922000066666667</v>
       </c>
       <c r="Q14">
-        <v>1.006204389834278</v>
+        <v>0.9922000066666667</v>
       </c>
       <c r="R14">
-        <v>1.002263898508572</v>
+        <v>0.9969978049999999</v>
       </c>
       <c r="S14">
-        <v>1.002263898508572</v>
+        <v>0.9969978049999999</v>
       </c>
       <c r="T14">
-        <v>1.000868113039493</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9990102666666664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9976113671436374</v>
+        <v>1.0117535</v>
       </c>
       <c r="D15">
-        <v>1.009886502223196</v>
+        <v>1.012634</v>
       </c>
       <c r="E15">
-        <v>0.9974822711396779</v>
+        <v>1.0301398</v>
       </c>
       <c r="F15">
-        <v>0.9976113671436374</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="G15">
-        <v>0.9932614545863709</v>
+        <v>1.012634</v>
       </c>
       <c r="H15">
-        <v>1.005467452870495</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="I15">
-        <v>0.9975199020681135</v>
+        <v>1.0113912</v>
       </c>
       <c r="J15">
-        <v>1.009886502223196</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="K15">
-        <v>0.9976113671436374</v>
+        <v>1.012634</v>
       </c>
       <c r="L15">
-        <v>0.9974822711396779</v>
+        <v>1.0113912</v>
       </c>
       <c r="M15">
-        <v>1.003684386681437</v>
+        <v>0.9820255</v>
       </c>
       <c r="N15">
-        <v>1.003684386681437</v>
+        <v>0.9820255</v>
       </c>
       <c r="O15">
-        <v>1.004278742077789</v>
+        <v>0.97943384</v>
       </c>
       <c r="P15">
-        <v>1.001660046835503</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q15">
-        <v>1.001660046835504</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R15">
-        <v>1.000647876912537</v>
+        <v>0.99732975</v>
       </c>
       <c r="S15">
-        <v>1.000647876912537</v>
+        <v>0.99732975</v>
       </c>
       <c r="T15">
-        <v>1.000204825005248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9988048033333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999985612467994</v>
+        <v>1.031103</v>
       </c>
       <c r="D16">
-        <v>0.9999982297751245</v>
+        <v>1.0301398</v>
       </c>
       <c r="E16">
-        <v>1.000001486060404</v>
+        <v>1.0842575</v>
       </c>
       <c r="F16">
-        <v>0.9999985612467994</v>
+        <v>0.9314549</v>
       </c>
       <c r="G16">
-        <v>1.000004523734461</v>
+        <v>1.0301398</v>
       </c>
       <c r="H16">
-        <v>0.999998350589281</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="I16">
-        <v>1.000000632463225</v>
+        <v>1.0314994</v>
       </c>
       <c r="J16">
-        <v>0.9999982297751245</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="K16">
-        <v>0.9999985612467994</v>
+        <v>1.0301398</v>
       </c>
       <c r="L16">
-        <v>1.000001486060404</v>
+        <v>1.0314994</v>
       </c>
       <c r="M16">
-        <v>0.9999998579177642</v>
+        <v>0.95372203</v>
       </c>
       <c r="N16">
-        <v>0.9999998579177642</v>
+        <v>0.95372203</v>
       </c>
       <c r="O16">
-        <v>0.9999993554749365</v>
+        <v>0.9462996533333333</v>
       </c>
       <c r="P16">
-        <v>0.9999994256941093</v>
+        <v>0.97919462</v>
       </c>
       <c r="Q16">
-        <v>0.9999994256941092</v>
+        <v>0.97919462</v>
       </c>
       <c r="R16">
-        <v>0.9999992095822817</v>
+        <v>0.991930915</v>
       </c>
       <c r="S16">
-        <v>0.9999992095822817</v>
+        <v>0.991930915</v>
       </c>
       <c r="T16">
-        <v>1.000000297311549</v>
+        <v>0.9973998766666666</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000019403453409</v>
+        <v>1.000756</v>
       </c>
       <c r="D17">
-        <v>0.9999318391141585</v>
+        <v>1.0011073</v>
       </c>
       <c r="E17">
-        <v>1.00001572572152</v>
+        <v>1.0015362</v>
       </c>
       <c r="F17">
-        <v>1.000019403453409</v>
+        <v>0.99837991</v>
       </c>
       <c r="G17">
-        <v>1.000041239295459</v>
+        <v>1.0011073</v>
       </c>
       <c r="H17">
-        <v>0.9999633638072573</v>
+        <v>0.9968457699999999</v>
       </c>
       <c r="I17">
-        <v>1.000016796834172</v>
+        <v>1.0006115</v>
       </c>
       <c r="J17">
-        <v>0.9999318391141585</v>
+        <v>0.9968457699999999</v>
       </c>
       <c r="K17">
-        <v>1.000019403453409</v>
+        <v>1.0011073</v>
       </c>
       <c r="L17">
-        <v>1.00001572572152</v>
+        <v>1.0006115</v>
       </c>
       <c r="M17">
-        <v>0.9999737824178392</v>
+        <v>0.998728635</v>
       </c>
       <c r="N17">
-        <v>0.9999737824178392</v>
+        <v>0.998728635</v>
       </c>
       <c r="O17">
-        <v>0.9999703095476452</v>
+        <v>0.9986123933333334</v>
       </c>
       <c r="P17">
-        <v>0.9999889894296957</v>
+        <v>0.9995215233333333</v>
       </c>
       <c r="Q17">
-        <v>0.9999889894296957</v>
+        <v>0.9995215233333333</v>
       </c>
       <c r="R17">
-        <v>0.999996592935624</v>
+        <v>0.9999179675000001</v>
       </c>
       <c r="S17">
-        <v>0.999996592935624</v>
+        <v>0.9999179675000001</v>
       </c>
       <c r="T17">
-        <v>0.999998061370996</v>
+        <v>0.99987278</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000053610503605</v>
+        <v>1.004490844109589</v>
       </c>
       <c r="D18">
-        <v>0.9997690791812543</v>
+        <v>1.00458872109589</v>
       </c>
       <c r="E18">
-        <v>1.00006002062316</v>
+        <v>1.011841841643836</v>
       </c>
       <c r="F18">
-        <v>1.000053610503605</v>
+        <v>0.9901321912328764</v>
       </c>
       <c r="G18">
-        <v>1.000161280529135</v>
+        <v>1.00458872109589</v>
       </c>
       <c r="H18">
-        <v>0.9998715130813893</v>
+        <v>0.9820003961643836</v>
       </c>
       <c r="I18">
-        <v>1.000058146405786</v>
+        <v>1.004450555068493</v>
       </c>
       <c r="J18">
-        <v>0.9997690791812543</v>
+        <v>0.9820003961643836</v>
       </c>
       <c r="K18">
-        <v>1.000053610503605</v>
+        <v>1.00458872109589</v>
       </c>
       <c r="L18">
-        <v>1.00006002062316</v>
+        <v>1.004450555068493</v>
       </c>
       <c r="M18">
-        <v>0.9999145499022074</v>
+        <v>0.9932254756164385</v>
       </c>
       <c r="N18">
-        <v>0.9999145499022074</v>
+        <v>0.9932254756164385</v>
       </c>
       <c r="O18">
-        <v>0.999900204295268</v>
+        <v>0.9921943808219179</v>
       </c>
       <c r="P18">
-        <v>0.9999609034360066</v>
+        <v>0.997013224109589</v>
       </c>
       <c r="Q18">
-        <v>0.9999609034360066</v>
+        <v>0.997013224109589</v>
       </c>
       <c r="R18">
-        <v>0.9999840802029063</v>
+        <v>0.9989070983561643</v>
       </c>
       <c r="S18">
-        <v>0.9999840802029063</v>
+        <v>0.9989070983561643</v>
       </c>
       <c r="T18">
-        <v>0.9999956083873883</v>
+        <v>0.9995840915525114</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000117258483913</v>
+        <v>1.005259675263158</v>
       </c>
       <c r="D19">
-        <v>0.9994641434259636</v>
+        <v>1.004966342105263</v>
       </c>
       <c r="E19">
-        <v>1.000143240085983</v>
+        <v>1.014426588421053</v>
       </c>
       <c r="F19">
-        <v>1.000117258483913</v>
+        <v>0.9883926447368422</v>
       </c>
       <c r="G19">
-        <v>1.000386932993124</v>
+        <v>1.004966342105263</v>
       </c>
       <c r="H19">
-        <v>0.9996992653307585</v>
+        <v>0.9790699431578948</v>
       </c>
       <c r="I19">
-        <v>1.000135669896341</v>
+        <v>1.005380393684211</v>
       </c>
       <c r="J19">
-        <v>0.9994641434259636</v>
+        <v>0.9790699431578948</v>
       </c>
       <c r="K19">
-        <v>1.000117258483913</v>
+        <v>1.004966342105263</v>
       </c>
       <c r="L19">
-        <v>1.000143240085983</v>
+        <v>1.005380393684211</v>
       </c>
       <c r="M19">
-        <v>0.9998036917559734</v>
+        <v>0.9922251684210526</v>
       </c>
       <c r="N19">
-        <v>0.9998036917559734</v>
+        <v>0.9922251684210526</v>
       </c>
       <c r="O19">
-        <v>0.9997688829475684</v>
+        <v>0.9909476605263158</v>
       </c>
       <c r="P19">
-        <v>0.9999082139986198</v>
+        <v>0.9964722263157894</v>
       </c>
       <c r="Q19">
-        <v>0.9999082139986198</v>
+        <v>0.9964722263157894</v>
       </c>
       <c r="R19">
-        <v>0.9999604751199431</v>
+        <v>0.9985957552631577</v>
       </c>
       <c r="S19">
-        <v>0.9999604751199431</v>
+        <v>0.9985957552631577</v>
       </c>
       <c r="T19">
-        <v>0.999991085036014</v>
+        <v>0.9995825978947369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.011711557894737</v>
+      </c>
+      <c r="D20">
+        <v>1.0120126</v>
+      </c>
+      <c r="E20">
+        <v>1.0308196</v>
+      </c>
+      <c r="F20">
+        <v>0.9742715484210523</v>
+      </c>
+      <c r="G20">
+        <v>1.0120126</v>
+      </c>
+      <c r="H20">
+        <v>0.95304221</v>
+      </c>
+      <c r="I20">
+        <v>1.0115877</v>
+      </c>
+      <c r="J20">
+        <v>0.95304221</v>
+      </c>
+      <c r="K20">
+        <v>1.0120126</v>
+      </c>
+      <c r="L20">
+        <v>1.0115877</v>
+      </c>
+      <c r="M20">
+        <v>0.982314955</v>
+      </c>
+      <c r="N20">
+        <v>0.982314955</v>
+      </c>
+      <c r="O20">
+        <v>0.9796338194736841</v>
+      </c>
+      <c r="P20">
+        <v>0.99221417</v>
+      </c>
+      <c r="Q20">
+        <v>0.99221417</v>
+      </c>
+      <c r="R20">
+        <v>0.9971637775</v>
+      </c>
+      <c r="S20">
+        <v>0.9971637775</v>
+      </c>
+      <c r="T20">
+        <v>0.9989075360526315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9906687327933373</v>
+      </c>
+      <c r="D21">
+        <v>0.9904424245314536</v>
+      </c>
+      <c r="E21">
+        <v>0.97542581761095</v>
+      </c>
+      <c r="F21">
+        <v>1.020500958329837</v>
+      </c>
+      <c r="G21">
+        <v>0.9904424245314536</v>
+      </c>
+      <c r="H21">
+        <v>1.037408880011357</v>
+      </c>
+      <c r="I21">
+        <v>0.9907618649600245</v>
+      </c>
+      <c r="J21">
+        <v>1.037408880011357</v>
+      </c>
+      <c r="K21">
+        <v>0.9904424245314536</v>
+      </c>
+      <c r="L21">
+        <v>0.9907618649600245</v>
+      </c>
+      <c r="M21">
+        <v>1.01408537248569</v>
+      </c>
+      <c r="N21">
+        <v>1.01408537248569</v>
+      </c>
+      <c r="O21">
+        <v>1.016223901100406</v>
+      </c>
+      <c r="P21">
+        <v>1.006204389834278</v>
+      </c>
+      <c r="Q21">
+        <v>1.006204389834278</v>
+      </c>
+      <c r="R21">
+        <v>1.002263898508572</v>
+      </c>
+      <c r="S21">
+        <v>1.002263898508572</v>
+      </c>
+      <c r="T21">
+        <v>1.000868113039493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9975199020681135</v>
+      </c>
+      <c r="D22">
+        <v>0.9976113671436374</v>
+      </c>
+      <c r="E22">
+        <v>0.9932614545863709</v>
+      </c>
+      <c r="F22">
+        <v>1.005467452870495</v>
+      </c>
+      <c r="G22">
+        <v>0.9976113671436374</v>
+      </c>
+      <c r="H22">
+        <v>1.009886502223196</v>
+      </c>
+      <c r="I22">
+        <v>0.9974822711396779</v>
+      </c>
+      <c r="J22">
+        <v>1.009886502223196</v>
+      </c>
+      <c r="K22">
+        <v>0.9976113671436374</v>
+      </c>
+      <c r="L22">
+        <v>0.9974822711396779</v>
+      </c>
+      <c r="M22">
+        <v>1.003684386681437</v>
+      </c>
+      <c r="N22">
+        <v>1.003684386681437</v>
+      </c>
+      <c r="O22">
+        <v>1.004278742077789</v>
+      </c>
+      <c r="P22">
+        <v>1.001660046835503</v>
+      </c>
+      <c r="Q22">
+        <v>1.001660046835504</v>
+      </c>
+      <c r="R22">
+        <v>1.000647876912537</v>
+      </c>
+      <c r="S22">
+        <v>1.000647876912537</v>
+      </c>
+      <c r="T22">
+        <v>1.000204825005248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9970235420755293</v>
+      </c>
+      <c r="D23">
+        <v>0.9970373435804138</v>
+      </c>
+      <c r="E23">
+        <v>0.9920439098363573</v>
+      </c>
+      <c r="F23">
+        <v>1.006549913773344</v>
+      </c>
+      <c r="G23">
+        <v>0.9970373435804138</v>
+      </c>
+      <c r="H23">
+        <v>1.011900739234415</v>
+      </c>
+      <c r="I23">
+        <v>0.9970178570257232</v>
+      </c>
+      <c r="J23">
+        <v>1.011900739234415</v>
+      </c>
+      <c r="K23">
+        <v>0.9970373435804138</v>
+      </c>
+      <c r="L23">
+        <v>0.9970178570257232</v>
+      </c>
+      <c r="M23">
+        <v>1.004459298130069</v>
+      </c>
+      <c r="N23">
+        <v>1.004459298130069</v>
+      </c>
+      <c r="O23">
+        <v>1.005156170011161</v>
+      </c>
+      <c r="P23">
+        <v>1.001985313280184</v>
+      </c>
+      <c r="Q23">
+        <v>1.001985313280184</v>
+      </c>
+      <c r="R23">
+        <v>1.000748320855242</v>
+      </c>
+      <c r="S23">
+        <v>1.000748320855242</v>
+      </c>
+      <c r="T23">
+        <v>1.000262217587631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9992274725860867</v>
+      </c>
+      <c r="D24">
+        <v>0.9992211241281937</v>
+      </c>
+      <c r="E24">
+        <v>0.9979485986214079</v>
+      </c>
+      <c r="F24">
+        <v>1.001698778897178</v>
+      </c>
+      <c r="G24">
+        <v>0.9992211241281937</v>
+      </c>
+      <c r="H24">
+        <v>1.003092467888098</v>
+      </c>
+      <c r="I24">
+        <v>0.9992300831470612</v>
+      </c>
+      <c r="J24">
+        <v>1.003092467888098</v>
+      </c>
+      <c r="K24">
+        <v>0.9992211241281937</v>
+      </c>
+      <c r="L24">
+        <v>0.9992300831470612</v>
+      </c>
+      <c r="M24">
+        <v>1.00116127551758</v>
+      </c>
+      <c r="N24">
+        <v>1.00116127551758</v>
+      </c>
+      <c r="O24">
+        <v>1.001340443310779</v>
+      </c>
+      <c r="P24">
+        <v>1.000514558387785</v>
+      </c>
+      <c r="Q24">
+        <v>1.000514558387784</v>
+      </c>
+      <c r="R24">
+        <v>1.000191199822887</v>
+      </c>
+      <c r="S24">
+        <v>1.000191199822887</v>
+      </c>
+      <c r="T24">
+        <v>1.000069754211337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.009175119596849</v>
+      </c>
+      <c r="D25">
+        <v>1.009630745342179</v>
+      </c>
+      <c r="E25">
+        <v>1.023844475337469</v>
+      </c>
+      <c r="F25">
+        <v>0.9798707752257811</v>
+      </c>
+      <c r="G25">
+        <v>1.009630745342179</v>
+      </c>
+      <c r="H25">
+        <v>0.9631307958606007</v>
+      </c>
+      <c r="I25">
+        <v>1.00898760841897</v>
+      </c>
+      <c r="J25">
+        <v>0.9631307958606007</v>
+      </c>
+      <c r="K25">
+        <v>1.009630745342179</v>
+      </c>
+      <c r="L25">
+        <v>1.00898760841897</v>
+      </c>
+      <c r="M25">
+        <v>0.9860592021397854</v>
+      </c>
+      <c r="N25">
+        <v>0.9860592021397854</v>
+      </c>
+      <c r="O25">
+        <v>0.9839963931684507</v>
+      </c>
+      <c r="P25">
+        <v>0.9939163832072498</v>
+      </c>
+      <c r="Q25">
+        <v>0.99391638320725</v>
+      </c>
+      <c r="R25">
+        <v>0.9978449737409822</v>
+      </c>
+      <c r="S25">
+        <v>0.9978449737409822</v>
+      </c>
+      <c r="T25">
+        <v>0.9991065866303083</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.002435122738661</v>
+      </c>
+      <c r="D26">
+        <v>1.002246668757283</v>
+      </c>
+      <c r="E26">
+        <v>1.006751139343956</v>
+      </c>
+      <c r="F26">
+        <v>0.9946195627435064</v>
+      </c>
+      <c r="G26">
+        <v>1.002246668757283</v>
+      </c>
+      <c r="H26">
+        <v>0.9903293150705917</v>
+      </c>
+      <c r="I26">
+        <v>1.002512680623129</v>
+      </c>
+      <c r="J26">
+        <v>0.9903293150705917</v>
+      </c>
+      <c r="K26">
+        <v>1.002246668757283</v>
+      </c>
+      <c r="L26">
+        <v>1.002512680623129</v>
+      </c>
+      <c r="M26">
+        <v>0.9964209978468603</v>
+      </c>
+      <c r="N26">
+        <v>0.9964209978468603</v>
+      </c>
+      <c r="O26">
+        <v>0.9958205194790756</v>
+      </c>
+      <c r="P26">
+        <v>0.9983628881503345</v>
+      </c>
+      <c r="Q26">
+        <v>0.9983628881503345</v>
+      </c>
+      <c r="R26">
+        <v>0.9993338333020716</v>
+      </c>
+      <c r="S26">
+        <v>0.9993338333020716</v>
+      </c>
+      <c r="T26">
+        <v>0.9998157482128546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000697168807335</v>
+      </c>
+      <c r="D27">
+        <v>1.000703519096353</v>
+      </c>
+      <c r="E27">
+        <v>1.001850456279138</v>
+      </c>
+      <c r="F27">
+        <v>0.9984670045525939</v>
+      </c>
+      <c r="G27">
+        <v>1.000703519096353</v>
+      </c>
+      <c r="H27">
+        <v>0.9972089695950399</v>
+      </c>
+      <c r="I27">
+        <v>1.000694570437099</v>
+      </c>
+      <c r="J27">
+        <v>0.9972089695950399</v>
+      </c>
+      <c r="K27">
+        <v>1.000703519096353</v>
+      </c>
+      <c r="L27">
+        <v>1.000694570437099</v>
+      </c>
+      <c r="M27">
+        <v>0.9989517700160694</v>
+      </c>
+      <c r="N27">
+        <v>0.9989517700160694</v>
+      </c>
+      <c r="O27">
+        <v>0.9987901815282442</v>
+      </c>
+      <c r="P27">
+        <v>0.9995356863761641</v>
+      </c>
+      <c r="Q27">
+        <v>0.9995356863761641</v>
+      </c>
+      <c r="R27">
+        <v>0.9998276445562113</v>
+      </c>
+      <c r="S27">
+        <v>0.9998276445562113</v>
+      </c>
+      <c r="T27">
+        <v>0.9999369481279264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.001211623532038</v>
+      </c>
+      <c r="D28">
+        <v>1.001244731236551</v>
+      </c>
+      <c r="E28">
+        <v>1.00318578899641</v>
+      </c>
+      <c r="F28">
+        <v>0.997338495792097</v>
+      </c>
+      <c r="G28">
+        <v>1.001244731236551</v>
+      </c>
+      <c r="H28">
+        <v>0.9951412228919242</v>
+      </c>
+      <c r="I28">
+        <v>1.001198005548696</v>
+      </c>
+      <c r="J28">
+        <v>0.9951412228919242</v>
+      </c>
+      <c r="K28">
+        <v>1.001244731236551</v>
+      </c>
+      <c r="L28">
+        <v>1.001198005548696</v>
+      </c>
+      <c r="M28">
+        <v>0.9981696142203103</v>
+      </c>
+      <c r="N28">
+        <v>0.9981696142203103</v>
+      </c>
+      <c r="O28">
+        <v>0.9978925747442391</v>
+      </c>
+      <c r="P28">
+        <v>0.9991946532257239</v>
+      </c>
+      <c r="Q28">
+        <v>0.9991946532257239</v>
+      </c>
+      <c r="R28">
+        <v>0.9997071727284307</v>
+      </c>
+      <c r="S28">
+        <v>0.9997071727284307</v>
+      </c>
+      <c r="T28">
+        <v>0.9998866446662861</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9989935744375774</v>
+      </c>
+      <c r="D29">
+        <v>0.9991215623488398</v>
+      </c>
+      <c r="E29">
+        <v>0.9971413668222673</v>
+      </c>
+      <c r="F29">
+        <v>1.002229883384566</v>
+      </c>
+      <c r="G29">
+        <v>0.9991215623488398</v>
+      </c>
+      <c r="H29">
+        <v>1.003978273466173</v>
+      </c>
+      <c r="I29">
+        <v>0.9989409168570128</v>
+      </c>
+      <c r="J29">
+        <v>1.003978273466173</v>
+      </c>
+      <c r="K29">
+        <v>0.9991215623488398</v>
+      </c>
+      <c r="L29">
+        <v>0.9989409168570128</v>
+      </c>
+      <c r="M29">
+        <v>1.001459595161593</v>
+      </c>
+      <c r="N29">
+        <v>1.001459595161593</v>
+      </c>
+      <c r="O29">
+        <v>1.001716357902584</v>
+      </c>
+      <c r="P29">
+        <v>1.000680250890675</v>
+      </c>
+      <c r="Q29">
+        <v>1.000680250890675</v>
+      </c>
+      <c r="R29">
+        <v>1.000290578755216</v>
+      </c>
+      <c r="S29">
+        <v>1.000290578755216</v>
+      </c>
+      <c r="T29">
+        <v>1.000067596219406</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.004221116339365</v>
+        <v>1.001642942408392</v>
       </c>
       <c r="D4">
-        <v>1.004129734667328</v>
+        <v>1.00161198709064</v>
       </c>
       <c r="E4">
-        <v>1.01138117800467</v>
+        <v>1.004423481279439</v>
       </c>
       <c r="F4">
-        <v>0.9907023014496289</v>
+        <v>0.9963817156091931</v>
       </c>
       <c r="G4">
-        <v>1.004129734667328</v>
+        <v>1.00161198709064</v>
       </c>
       <c r="H4">
-        <v>0.9831493707546165</v>
+        <v>0.9934396875258538</v>
       </c>
       <c r="I4">
-        <v>1.004258724033913</v>
+        <v>1.001655683809866</v>
       </c>
       <c r="J4">
-        <v>0.9831493707546165</v>
+        <v>0.9934396875258538</v>
       </c>
       <c r="K4">
-        <v>1.004129734667328</v>
+        <v>1.00161198709064</v>
       </c>
       <c r="L4">
-        <v>1.004258724033913</v>
+        <v>1.001655683809866</v>
       </c>
       <c r="M4">
-        <v>0.9937040473942647</v>
+        <v>0.99754768566786</v>
       </c>
       <c r="N4">
-        <v>0.9937040473942647</v>
+        <v>0.99754768566786</v>
       </c>
       <c r="O4">
-        <v>0.9927034654127195</v>
+        <v>0.9971590289816378</v>
       </c>
       <c r="P4">
-        <v>0.9971792764852857</v>
+        <v>0.9989024528087868</v>
       </c>
       <c r="Q4">
-        <v>0.9971792764852858</v>
+        <v>0.9989024528087868</v>
       </c>
       <c r="R4">
-        <v>0.9989168910307964</v>
+        <v>0.9995798363792501</v>
       </c>
       <c r="S4">
-        <v>0.9989168910307964</v>
+        <v>0.9995798363792501</v>
       </c>
       <c r="T4">
-        <v>0.9996404042082535</v>
+        <v>0.9998592496205641</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.0021183309366</v>
+        <v>1.011713713555401</v>
       </c>
       <c r="D5">
-        <v>1.002091901296829</v>
+        <v>1.012044513451855</v>
       </c>
       <c r="E5">
-        <v>1.005685002881846</v>
+        <v>1.030784686801507</v>
       </c>
       <c r="F5">
-        <v>0.9953364160374621</v>
+        <v>0.9742704683139841</v>
       </c>
       <c r="G5">
-        <v>1.002091901296829</v>
+        <v>1.012044513451855</v>
       </c>
       <c r="H5">
-        <v>0.9915364556123937</v>
+        <v>0.9530225711532808</v>
       </c>
       <c r="I5">
-        <v>1.002129210533143</v>
+        <v>1.011577608018684</v>
       </c>
       <c r="J5">
-        <v>0.9915364556123937</v>
+        <v>0.9530225711532808</v>
       </c>
       <c r="K5">
-        <v>1.002091901296829</v>
+        <v>1.012044513451855</v>
       </c>
       <c r="L5">
-        <v>1.002129210533143</v>
+        <v>1.011577608018684</v>
       </c>
       <c r="M5">
-        <v>0.9968328330727683</v>
+        <v>0.9823000895859824</v>
       </c>
       <c r="N5">
-        <v>0.9968328330727683</v>
+        <v>0.9823000895859824</v>
       </c>
       <c r="O5">
-        <v>0.996334027394333</v>
+        <v>0.979623549161983</v>
       </c>
       <c r="P5">
-        <v>0.998585855814122</v>
+        <v>0.9922148975412733</v>
       </c>
       <c r="Q5">
-        <v>0.9985858558141217</v>
+        <v>0.9922148975412733</v>
       </c>
       <c r="R5">
-        <v>0.9994623671847986</v>
+        <v>0.9971723015189187</v>
       </c>
       <c r="S5">
-        <v>0.9994623671847986</v>
+        <v>0.9971723015189187</v>
       </c>
       <c r="T5">
-        <v>0.9998162195497122</v>
+        <v>0.9989022602157852</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.006655957380839</v>
+        <v>1.004221116339365</v>
       </c>
       <c r="D6">
-        <v>1.006503170641839</v>
+        <v>1.004129734667328</v>
       </c>
       <c r="E6">
-        <v>1.017958020118601</v>
+        <v>1.01138117800467</v>
       </c>
       <c r="F6">
-        <v>0.9853380710090605</v>
+        <v>0.9907023014496289</v>
       </c>
       <c r="G6">
-        <v>1.006503170641839</v>
+        <v>1.004129734667328</v>
       </c>
       <c r="H6">
-        <v>0.9734327091269868</v>
+        <v>0.9831493707546165</v>
       </c>
       <c r="I6">
-        <v>1.006718849933738</v>
+        <v>1.004258724033913</v>
       </c>
       <c r="J6">
-        <v>0.9734327091269868</v>
+        <v>0.9831493707546165</v>
       </c>
       <c r="K6">
-        <v>1.006503170641839</v>
+        <v>1.004129734667328</v>
       </c>
       <c r="L6">
-        <v>1.006718849933738</v>
+        <v>1.004258724033913</v>
       </c>
       <c r="M6">
-        <v>0.9900757795303622</v>
+        <v>0.9937040473942647</v>
       </c>
       <c r="N6">
-        <v>0.9900757795303622</v>
+        <v>0.9937040473942647</v>
       </c>
       <c r="O6">
-        <v>0.9884965433565949</v>
+        <v>0.9927034654127195</v>
       </c>
       <c r="P6">
-        <v>0.9955515765675212</v>
+        <v>0.9971792764852857</v>
       </c>
       <c r="Q6">
-        <v>0.9955515765675212</v>
+        <v>0.9971792764852858</v>
       </c>
       <c r="R6">
-        <v>0.9982894750861008</v>
+        <v>0.9989168910307964</v>
       </c>
       <c r="S6">
-        <v>0.9982894750861008</v>
+        <v>0.9989168910307964</v>
       </c>
       <c r="T6">
-        <v>0.9994344630351774</v>
+        <v>0.9996404042082535</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000249577480716</v>
+        <v>1.0021183309366</v>
       </c>
       <c r="D7">
-        <v>1.000255852544417</v>
+        <v>1.002091901296829</v>
       </c>
       <c r="E7">
-        <v>1.000656976050994</v>
+        <v>1.005685002881846</v>
       </c>
       <c r="F7">
-        <v>0.9994516972557508</v>
+        <v>0.9953364160374621</v>
       </c>
       <c r="G7">
-        <v>1.000255852544417</v>
+        <v>1.002091901296829</v>
       </c>
       <c r="H7">
-        <v>0.9989993582114883</v>
+        <v>0.9915364556123937</v>
       </c>
       <c r="I7">
-        <v>1.000246996694265</v>
+        <v>1.002129210533143</v>
       </c>
       <c r="J7">
-        <v>0.9989993582114883</v>
+        <v>0.9915364556123937</v>
       </c>
       <c r="K7">
-        <v>1.000255852544417</v>
+        <v>1.002091901296829</v>
       </c>
       <c r="L7">
-        <v>1.000246996694265</v>
+        <v>1.002129210533143</v>
       </c>
       <c r="M7">
-        <v>0.9996231774528765</v>
+        <v>0.9968328330727683</v>
       </c>
       <c r="N7">
-        <v>0.9996231774528765</v>
+        <v>0.9968328330727683</v>
       </c>
       <c r="O7">
-        <v>0.9995660173871679</v>
+        <v>0.996334027394333</v>
       </c>
       <c r="P7">
-        <v>0.9998340691500568</v>
+        <v>0.998585855814122</v>
       </c>
       <c r="Q7">
-        <v>0.9998340691500568</v>
+        <v>0.9985858558141217</v>
       </c>
       <c r="R7">
-        <v>0.999939514998647</v>
+        <v>0.9994623671847986</v>
       </c>
       <c r="S7">
-        <v>0.999939514998647</v>
+        <v>0.9994623671847986</v>
       </c>
       <c r="T7">
-        <v>0.9999767430396052</v>
+        <v>0.9998162195497122</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000016796834172</v>
+        <v>1.006655957380839</v>
       </c>
       <c r="D8">
-        <v>1.000019403453409</v>
+        <v>1.006503170641839</v>
       </c>
       <c r="E8">
-        <v>1.000041239295459</v>
+        <v>1.017958020118601</v>
       </c>
       <c r="F8">
-        <v>0.9999633638072571</v>
+        <v>0.9853380710090605</v>
       </c>
       <c r="G8">
-        <v>1.000019403453409</v>
+        <v>1.006503170641839</v>
       </c>
       <c r="H8">
-        <v>0.9999318391141585</v>
+        <v>0.9734327091269868</v>
       </c>
       <c r="I8">
-        <v>1.00001572572152</v>
+        <v>1.006718849933738</v>
       </c>
       <c r="J8">
-        <v>0.9999318391141585</v>
+        <v>0.9734327091269868</v>
       </c>
       <c r="K8">
-        <v>1.000019403453409</v>
+        <v>1.006503170641839</v>
       </c>
       <c r="L8">
-        <v>1.00001572572152</v>
+        <v>1.006718849933738</v>
       </c>
       <c r="M8">
-        <v>0.9999737824178392</v>
+        <v>0.9900757795303622</v>
       </c>
       <c r="N8">
-        <v>0.9999737824178392</v>
+        <v>0.9900757795303622</v>
       </c>
       <c r="O8">
-        <v>0.9999703095476452</v>
+        <v>0.9884965433565949</v>
       </c>
       <c r="P8">
-        <v>0.9999889894296957</v>
+        <v>0.9955515765675212</v>
       </c>
       <c r="Q8">
-        <v>0.9999889894296957</v>
+        <v>0.9955515765675212</v>
       </c>
       <c r="R8">
-        <v>0.999996592935624</v>
+        <v>0.9982894750861008</v>
       </c>
       <c r="S8">
-        <v>0.999996592935624</v>
+        <v>0.9982894750861008</v>
       </c>
       <c r="T8">
-        <v>0.999998061370996</v>
+        <v>0.9994344630351774</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000367180343983</v>
+        <v>1.000249577480716</v>
       </c>
       <c r="D9">
-        <v>1.000374250039157</v>
+        <v>1.000255852544417</v>
       </c>
       <c r="E9">
-        <v>1.000969496776547</v>
+        <v>1.000656976050994</v>
       </c>
       <c r="F9">
-        <v>0.9991930690019738</v>
+        <v>0.9994516972557508</v>
       </c>
       <c r="G9">
-        <v>1.000374250039157</v>
+        <v>1.000255852544417</v>
       </c>
       <c r="H9">
-        <v>0.9985286533184807</v>
+        <v>0.9989993582114883</v>
       </c>
       <c r="I9">
-        <v>1.000364271840125</v>
+        <v>1.000246996694265</v>
       </c>
       <c r="J9">
-        <v>0.9985286533184807</v>
+        <v>0.9989993582114883</v>
       </c>
       <c r="K9">
-        <v>1.000374250039157</v>
+        <v>1.000255852544417</v>
       </c>
       <c r="L9">
-        <v>1.000364271840125</v>
+        <v>1.000246996694265</v>
       </c>
       <c r="M9">
-        <v>0.9994464625793029</v>
+        <v>0.9996231774528765</v>
       </c>
       <c r="N9">
-        <v>0.9994464625793029</v>
+        <v>0.9996231774528765</v>
       </c>
       <c r="O9">
-        <v>0.9993619980535265</v>
+        <v>0.9995660173871679</v>
       </c>
       <c r="P9">
-        <v>0.999755725065921</v>
+        <v>0.9998340691500568</v>
       </c>
       <c r="Q9">
-        <v>0.999755725065921</v>
+        <v>0.9998340691500568</v>
       </c>
       <c r="R9">
-        <v>0.9999103563092301</v>
+        <v>0.999939514998647</v>
       </c>
       <c r="S9">
-        <v>0.9999103563092301</v>
+        <v>0.999939514998647</v>
       </c>
       <c r="T9">
-        <v>0.9999661535533778</v>
+        <v>0.9999767430396052</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.006754638505855</v>
+        <v>1.000016796834172</v>
       </c>
       <c r="D10">
-        <v>1.006597086986848</v>
+        <v>1.000019403453409</v>
       </c>
       <c r="E10">
-        <v>1.018227679222484</v>
+        <v>1.000041239295459</v>
       </c>
       <c r="F10">
-        <v>0.9851203864202547</v>
+        <v>0.9999633638072571</v>
       </c>
       <c r="G10">
-        <v>1.006597086986848</v>
+        <v>1.000019403453409</v>
       </c>
       <c r="H10">
-        <v>0.9730397501937882</v>
+        <v>0.9999318391141585</v>
       </c>
       <c r="I10">
-        <v>1.006819492286745</v>
+        <v>1.00001572572152</v>
       </c>
       <c r="J10">
-        <v>0.9730397501937882</v>
+        <v>0.9999318391141585</v>
       </c>
       <c r="K10">
-        <v>1.006597086986848</v>
+        <v>1.000019403453409</v>
       </c>
       <c r="L10">
-        <v>1.006819492286745</v>
+        <v>1.00001572572152</v>
       </c>
       <c r="M10">
-        <v>0.9899296212402667</v>
+        <v>0.9999737824178392</v>
       </c>
       <c r="N10">
-        <v>0.9899296212402667</v>
+        <v>0.9999737824178392</v>
       </c>
       <c r="O10">
-        <v>0.9883265429669293</v>
+        <v>0.9999703095476452</v>
       </c>
       <c r="P10">
-        <v>0.9954854431557939</v>
+        <v>0.9999889894296957</v>
       </c>
       <c r="Q10">
-        <v>0.9954854431557939</v>
+        <v>0.9999889894296957</v>
       </c>
       <c r="R10">
-        <v>0.9982633541135575</v>
+        <v>0.999996592935624</v>
       </c>
       <c r="S10">
-        <v>0.9982633541135575</v>
+        <v>0.999996592935624</v>
       </c>
       <c r="T10">
-        <v>0.9994265056026626</v>
+        <v>0.999998061370996</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.004222063611952</v>
+        <v>1.000367180343983</v>
       </c>
       <c r="D11">
-        <v>1.0041422913036</v>
+        <v>1.000374250039157</v>
       </c>
       <c r="E11">
-        <v>1.011367843729045</v>
+        <v>1.000969496776547</v>
       </c>
       <c r="F11">
-        <v>0.9907016445750482</v>
+        <v>0.9991930690019738</v>
       </c>
       <c r="G11">
-        <v>1.0041422913036</v>
+        <v>1.000374250039157</v>
       </c>
       <c r="H11">
-        <v>0.9831412800919087</v>
+        <v>0.9985286533184807</v>
       </c>
       <c r="I11">
-        <v>1.004254892574463</v>
+        <v>1.000364271840125</v>
       </c>
       <c r="J11">
-        <v>0.9831412800919087</v>
+        <v>0.9985286533184807</v>
       </c>
       <c r="K11">
-        <v>1.0041422913036</v>
+        <v>1.000374250039157</v>
       </c>
       <c r="L11">
-        <v>1.004254892574463</v>
+        <v>1.000364271840125</v>
       </c>
       <c r="M11">
-        <v>0.9936980863331857</v>
+        <v>0.9994464625793029</v>
       </c>
       <c r="N11">
-        <v>0.9936980863331857</v>
+        <v>0.9994464625793029</v>
       </c>
       <c r="O11">
-        <v>0.9926992724138065</v>
+        <v>0.9993619980535265</v>
       </c>
       <c r="P11">
-        <v>0.9971794879899903</v>
+        <v>0.999755725065921</v>
       </c>
       <c r="Q11">
-        <v>0.9971794879899906</v>
+        <v>0.999755725065921</v>
       </c>
       <c r="R11">
-        <v>0.998920188818393</v>
+        <v>0.9999103563092301</v>
       </c>
       <c r="S11">
-        <v>0.998920188818393</v>
+        <v>0.9999103563092301</v>
       </c>
       <c r="T11">
-        <v>0.9996383359810026</v>
+        <v>0.9999661535533778</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.002159530399999</v>
+        <v>1.006754638505855</v>
       </c>
       <c r="D12">
-        <v>1.002115393810525</v>
+        <v>1.006597086986848</v>
       </c>
       <c r="E12">
-        <v>1.005819060505265</v>
+        <v>1.018227679222484</v>
       </c>
       <c r="F12">
-        <v>0.9952435986736818</v>
+        <v>0.9851203864202547</v>
       </c>
       <c r="G12">
-        <v>1.002115393810525</v>
+        <v>1.006597086986848</v>
       </c>
       <c r="H12">
-        <v>0.9913782170947385</v>
+        <v>0.9730397501937882</v>
       </c>
       <c r="I12">
-        <v>1.002177698315791</v>
+        <v>1.006819492286745</v>
       </c>
       <c r="J12">
-        <v>0.9913782170947385</v>
+        <v>0.9730397501937882</v>
       </c>
       <c r="K12">
-        <v>1.002115393810525</v>
+        <v>1.006597086986848</v>
       </c>
       <c r="L12">
-        <v>1.002177698315791</v>
+        <v>1.006819492286745</v>
       </c>
       <c r="M12">
-        <v>0.9967779577052649</v>
+        <v>0.9899296212402667</v>
       </c>
       <c r="N12">
-        <v>0.9967779577052649</v>
+        <v>0.9899296212402667</v>
       </c>
       <c r="O12">
-        <v>0.9962665046947373</v>
+        <v>0.9883265429669293</v>
       </c>
       <c r="P12">
-        <v>0.9985571030736849</v>
+        <v>0.9954854431557939</v>
       </c>
       <c r="Q12">
-        <v>0.9985571030736849</v>
+        <v>0.9954854431557939</v>
       </c>
       <c r="R12">
-        <v>0.999446675757895</v>
+        <v>0.9982633541135575</v>
       </c>
       <c r="S12">
-        <v>0.999446675757895</v>
+        <v>0.9982633541135575</v>
       </c>
       <c r="T12">
-        <v>0.9998155831333335</v>
+        <v>0.9994265056026626</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9986694496332862</v>
+        <v>1.004222063611952</v>
       </c>
       <c r="D13">
-        <v>0.9986716396710293</v>
+        <v>1.0041422913036</v>
       </c>
       <c r="E13">
-        <v>0.9964488802998999</v>
+        <v>1.011367843729045</v>
       </c>
       <c r="F13">
-        <v>1.002927476750974</v>
+        <v>0.9907016445750482</v>
       </c>
       <c r="G13">
-        <v>0.9986716396710293</v>
+        <v>1.0041422913036</v>
       </c>
       <c r="H13">
-        <v>1.005321386560085</v>
+        <v>0.9831412800919087</v>
       </c>
       <c r="I13">
-        <v>0.998668550555279</v>
+        <v>1.004254892574463</v>
       </c>
       <c r="J13">
-        <v>1.005321386560085</v>
+        <v>0.9831412800919087</v>
       </c>
       <c r="K13">
-        <v>0.9986716396710293</v>
+        <v>1.0041422913036</v>
       </c>
       <c r="L13">
-        <v>0.998668550555279</v>
+        <v>1.004254892574463</v>
       </c>
       <c r="M13">
-        <v>1.001994968557682</v>
+        <v>0.9936980863331857</v>
       </c>
       <c r="N13">
-        <v>1.001994968557682</v>
+        <v>0.9936980863331857</v>
       </c>
       <c r="O13">
-        <v>1.002305804622113</v>
+        <v>0.9926992724138065</v>
       </c>
       <c r="P13">
-        <v>1.000887192262131</v>
+        <v>0.9971794879899903</v>
       </c>
       <c r="Q13">
-        <v>1.000887192262131</v>
+        <v>0.9971794879899906</v>
       </c>
       <c r="R13">
-        <v>1.000333304114356</v>
+        <v>0.998920188818393</v>
       </c>
       <c r="S13">
-        <v>1.000333304114356</v>
+        <v>0.998920188818393</v>
       </c>
       <c r="T13">
-        <v>1.000117897245092</v>
+        <v>0.9996383359810026</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.0116696</v>
+        <v>1.002159530399999</v>
       </c>
       <c r="D14">
-        <v>1.0113912</v>
+        <v>1.002115393810525</v>
       </c>
       <c r="E14">
-        <v>1.031499400000001</v>
+        <v>1.005819060505265</v>
       </c>
       <c r="F14">
-        <v>0.9742925799999982</v>
+        <v>0.9952435986736818</v>
       </c>
       <c r="G14">
-        <v>1.0113912</v>
+        <v>1.002115393810525</v>
       </c>
       <c r="H14">
-        <v>0.9534246200000004</v>
+        <v>0.9913782170947385</v>
       </c>
       <c r="I14">
-        <v>1.0117842</v>
+        <v>1.002177698315791</v>
       </c>
       <c r="J14">
-        <v>0.9534246200000004</v>
+        <v>0.9913782170947385</v>
       </c>
       <c r="K14">
-        <v>1.0113912</v>
+        <v>1.002115393810525</v>
       </c>
       <c r="L14">
-        <v>1.0117842</v>
+        <v>1.002177698315791</v>
       </c>
       <c r="M14">
-        <v>0.9826044100000002</v>
+        <v>0.9967779577052649</v>
       </c>
       <c r="N14">
-        <v>0.9826044100000002</v>
+        <v>0.9967779577052649</v>
       </c>
       <c r="O14">
-        <v>0.9798337999999994</v>
+        <v>0.9962665046947373</v>
       </c>
       <c r="P14">
-        <v>0.9922000066666667</v>
+        <v>0.9985571030736849</v>
       </c>
       <c r="Q14">
-        <v>0.9922000066666667</v>
+        <v>0.9985571030736849</v>
       </c>
       <c r="R14">
-        <v>0.9969978049999999</v>
+        <v>0.999446675757895</v>
       </c>
       <c r="S14">
-        <v>0.9969978049999999</v>
+        <v>0.999446675757895</v>
       </c>
       <c r="T14">
-        <v>0.9990102666666664</v>
+        <v>0.9998155831333335</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0117535</v>
+        <v>0.9986694496332862</v>
       </c>
       <c r="D15">
-        <v>1.012634</v>
+        <v>0.9986716396710293</v>
       </c>
       <c r="E15">
-        <v>1.0301398</v>
+        <v>0.9964488802998999</v>
       </c>
       <c r="F15">
-        <v>0.9742505199999999</v>
+        <v>1.002927476750974</v>
       </c>
       <c r="G15">
-        <v>1.012634</v>
+        <v>0.9986716396710293</v>
       </c>
       <c r="H15">
-        <v>0.9526597999999999</v>
+        <v>1.005321386560085</v>
       </c>
       <c r="I15">
-        <v>1.0113912</v>
+        <v>0.998668550555279</v>
       </c>
       <c r="J15">
-        <v>0.9526597999999999</v>
+        <v>1.005321386560085</v>
       </c>
       <c r="K15">
-        <v>1.012634</v>
+        <v>0.9986716396710293</v>
       </c>
       <c r="L15">
-        <v>1.0113912</v>
+        <v>0.998668550555279</v>
       </c>
       <c r="M15">
-        <v>0.9820255</v>
+        <v>1.001994968557682</v>
       </c>
       <c r="N15">
-        <v>0.9820255</v>
+        <v>1.001994968557682</v>
       </c>
       <c r="O15">
-        <v>0.97943384</v>
+        <v>1.002305804622113</v>
       </c>
       <c r="P15">
-        <v>0.9922283333333333</v>
+        <v>1.000887192262131</v>
       </c>
       <c r="Q15">
-        <v>0.9922283333333333</v>
+        <v>1.000887192262131</v>
       </c>
       <c r="R15">
-        <v>0.99732975</v>
+        <v>1.000333304114356</v>
       </c>
       <c r="S15">
-        <v>0.99732975</v>
+        <v>1.000333304114356</v>
       </c>
       <c r="T15">
-        <v>0.9988048033333333</v>
+        <v>1.000117897245092</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.031103</v>
+        <v>1.0116696</v>
       </c>
       <c r="D16">
-        <v>1.0301398</v>
+        <v>1.0113912</v>
       </c>
       <c r="E16">
-        <v>1.0842575</v>
+        <v>1.031499400000001</v>
       </c>
       <c r="F16">
-        <v>0.9314549</v>
+        <v>0.9742925799999982</v>
       </c>
       <c r="G16">
-        <v>1.0301398</v>
+        <v>1.0113912</v>
       </c>
       <c r="H16">
-        <v>0.8759446600000002</v>
+        <v>0.9534246200000004</v>
       </c>
       <c r="I16">
-        <v>1.0314994</v>
+        <v>1.0117842</v>
       </c>
       <c r="J16">
-        <v>0.8759446600000002</v>
+        <v>0.9534246200000004</v>
       </c>
       <c r="K16">
-        <v>1.0301398</v>
+        <v>1.0113912</v>
       </c>
       <c r="L16">
-        <v>1.0314994</v>
+        <v>1.0117842</v>
       </c>
       <c r="M16">
-        <v>0.95372203</v>
+        <v>0.9826044100000002</v>
       </c>
       <c r="N16">
-        <v>0.95372203</v>
+        <v>0.9826044100000002</v>
       </c>
       <c r="O16">
-        <v>0.9462996533333333</v>
+        <v>0.9798337999999994</v>
       </c>
       <c r="P16">
-        <v>0.97919462</v>
+        <v>0.9922000066666667</v>
       </c>
       <c r="Q16">
-        <v>0.97919462</v>
+        <v>0.9922000066666667</v>
       </c>
       <c r="R16">
-        <v>0.991930915</v>
+        <v>0.9969978049999999</v>
       </c>
       <c r="S16">
-        <v>0.991930915</v>
+        <v>0.9969978049999999</v>
       </c>
       <c r="T16">
-        <v>0.9973998766666666</v>
+        <v>0.9990102666666664</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000756</v>
+        <v>1.0117535</v>
       </c>
       <c r="D17">
-        <v>1.0011073</v>
+        <v>1.012634</v>
       </c>
       <c r="E17">
-        <v>1.0015362</v>
+        <v>1.0301398</v>
       </c>
       <c r="F17">
-        <v>0.99837991</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="G17">
-        <v>1.0011073</v>
+        <v>1.012634</v>
       </c>
       <c r="H17">
-        <v>0.9968457699999999</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="I17">
-        <v>1.0006115</v>
+        <v>1.0113912</v>
       </c>
       <c r="J17">
-        <v>0.9968457699999999</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="K17">
-        <v>1.0011073</v>
+        <v>1.012634</v>
       </c>
       <c r="L17">
-        <v>1.0006115</v>
+        <v>1.0113912</v>
       </c>
       <c r="M17">
-        <v>0.998728635</v>
+        <v>0.9820255</v>
       </c>
       <c r="N17">
-        <v>0.998728635</v>
+        <v>0.9820255</v>
       </c>
       <c r="O17">
-        <v>0.9986123933333334</v>
+        <v>0.97943384</v>
       </c>
       <c r="P17">
-        <v>0.9995215233333333</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q17">
-        <v>0.9995215233333333</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R17">
-        <v>0.9999179675000001</v>
+        <v>0.99732975</v>
       </c>
       <c r="S17">
-        <v>0.9999179675000001</v>
+        <v>0.99732975</v>
       </c>
       <c r="T17">
-        <v>0.99987278</v>
+        <v>0.9988048033333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.004490844109589</v>
+        <v>1.031103</v>
       </c>
       <c r="D18">
-        <v>1.00458872109589</v>
+        <v>1.0301398</v>
       </c>
       <c r="E18">
-        <v>1.011841841643836</v>
+        <v>1.0842575</v>
       </c>
       <c r="F18">
-        <v>0.9901321912328764</v>
+        <v>0.9314549</v>
       </c>
       <c r="G18">
-        <v>1.00458872109589</v>
+        <v>1.0301398</v>
       </c>
       <c r="H18">
-        <v>0.9820003961643836</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="I18">
-        <v>1.004450555068493</v>
+        <v>1.0314994</v>
       </c>
       <c r="J18">
-        <v>0.9820003961643836</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="K18">
-        <v>1.00458872109589</v>
+        <v>1.0301398</v>
       </c>
       <c r="L18">
-        <v>1.004450555068493</v>
+        <v>1.0314994</v>
       </c>
       <c r="M18">
-        <v>0.9932254756164385</v>
+        <v>0.95372203</v>
       </c>
       <c r="N18">
-        <v>0.9932254756164385</v>
+        <v>0.95372203</v>
       </c>
       <c r="O18">
-        <v>0.9921943808219179</v>
+        <v>0.9462996533333333</v>
       </c>
       <c r="P18">
-        <v>0.997013224109589</v>
+        <v>0.97919462</v>
       </c>
       <c r="Q18">
-        <v>0.997013224109589</v>
+        <v>0.97919462</v>
       </c>
       <c r="R18">
-        <v>0.9989070983561643</v>
+        <v>0.991930915</v>
       </c>
       <c r="S18">
-        <v>0.9989070983561643</v>
+        <v>0.991930915</v>
       </c>
       <c r="T18">
-        <v>0.9995840915525114</v>
+        <v>0.9973998766666666</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.005259675263158</v>
+        <v>1.000756</v>
       </c>
       <c r="D19">
-        <v>1.004966342105263</v>
+        <v>1.0011073</v>
       </c>
       <c r="E19">
-        <v>1.014426588421053</v>
+        <v>1.0015362</v>
       </c>
       <c r="F19">
-        <v>0.9883926447368422</v>
+        <v>0.99837991</v>
       </c>
       <c r="G19">
-        <v>1.004966342105263</v>
+        <v>1.0011073</v>
       </c>
       <c r="H19">
-        <v>0.9790699431578948</v>
+        <v>0.9968457699999999</v>
       </c>
       <c r="I19">
-        <v>1.005380393684211</v>
+        <v>1.0006115</v>
       </c>
       <c r="J19">
-        <v>0.9790699431578948</v>
+        <v>0.9968457699999999</v>
       </c>
       <c r="K19">
-        <v>1.004966342105263</v>
+        <v>1.0011073</v>
       </c>
       <c r="L19">
-        <v>1.005380393684211</v>
+        <v>1.0006115</v>
       </c>
       <c r="M19">
-        <v>0.9922251684210526</v>
+        <v>0.998728635</v>
       </c>
       <c r="N19">
-        <v>0.9922251684210526</v>
+        <v>0.998728635</v>
       </c>
       <c r="O19">
-        <v>0.9909476605263158</v>
+        <v>0.9986123933333334</v>
       </c>
       <c r="P19">
-        <v>0.9964722263157894</v>
+        <v>0.9995215233333333</v>
       </c>
       <c r="Q19">
-        <v>0.9964722263157894</v>
+        <v>0.9995215233333333</v>
       </c>
       <c r="R19">
-        <v>0.9985957552631577</v>
+        <v>0.9999179675000001</v>
       </c>
       <c r="S19">
-        <v>0.9985957552631577</v>
+        <v>0.9999179675000001</v>
       </c>
       <c r="T19">
-        <v>0.9995825978947369</v>
+        <v>0.99987278</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.011711557894737</v>
+        <v>1.004490844109589</v>
       </c>
       <c r="D20">
-        <v>1.0120126</v>
+        <v>1.00458872109589</v>
       </c>
       <c r="E20">
-        <v>1.0308196</v>
+        <v>1.011841841643836</v>
       </c>
       <c r="F20">
-        <v>0.9742715484210523</v>
+        <v>0.9901321912328764</v>
       </c>
       <c r="G20">
-        <v>1.0120126</v>
+        <v>1.00458872109589</v>
       </c>
       <c r="H20">
-        <v>0.95304221</v>
+        <v>0.9820003961643836</v>
       </c>
       <c r="I20">
-        <v>1.0115877</v>
+        <v>1.004450555068493</v>
       </c>
       <c r="J20">
-        <v>0.95304221</v>
+        <v>0.9820003961643836</v>
       </c>
       <c r="K20">
-        <v>1.0120126</v>
+        <v>1.00458872109589</v>
       </c>
       <c r="L20">
-        <v>1.0115877</v>
+        <v>1.004450555068493</v>
       </c>
       <c r="M20">
-        <v>0.982314955</v>
+        <v>0.9932254756164385</v>
       </c>
       <c r="N20">
-        <v>0.982314955</v>
+        <v>0.9932254756164385</v>
       </c>
       <c r="O20">
-        <v>0.9796338194736841</v>
+        <v>0.9921943808219179</v>
       </c>
       <c r="P20">
-        <v>0.99221417</v>
+        <v>0.997013224109589</v>
       </c>
       <c r="Q20">
-        <v>0.99221417</v>
+        <v>0.997013224109589</v>
       </c>
       <c r="R20">
-        <v>0.9971637775</v>
+        <v>0.9989070983561643</v>
       </c>
       <c r="S20">
-        <v>0.9971637775</v>
+        <v>0.9989070983561643</v>
       </c>
       <c r="T20">
-        <v>0.9989075360526315</v>
+        <v>0.9995840915525114</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9906687327933373</v>
+        <v>1.005259675263158</v>
       </c>
       <c r="D21">
-        <v>0.9904424245314536</v>
+        <v>1.004966342105263</v>
       </c>
       <c r="E21">
-        <v>0.97542581761095</v>
+        <v>1.014426588421053</v>
       </c>
       <c r="F21">
-        <v>1.020500958329837</v>
+        <v>0.9883926447368422</v>
       </c>
       <c r="G21">
-        <v>0.9904424245314536</v>
+        <v>1.004966342105263</v>
       </c>
       <c r="H21">
-        <v>1.037408880011357</v>
+        <v>0.9790699431578948</v>
       </c>
       <c r="I21">
-        <v>0.9907618649600245</v>
+        <v>1.005380393684211</v>
       </c>
       <c r="J21">
-        <v>1.037408880011357</v>
+        <v>0.9790699431578948</v>
       </c>
       <c r="K21">
-        <v>0.9904424245314536</v>
+        <v>1.004966342105263</v>
       </c>
       <c r="L21">
-        <v>0.9907618649600245</v>
+        <v>1.005380393684211</v>
       </c>
       <c r="M21">
-        <v>1.01408537248569</v>
+        <v>0.9922251684210526</v>
       </c>
       <c r="N21">
-        <v>1.01408537248569</v>
+        <v>0.9922251684210526</v>
       </c>
       <c r="O21">
-        <v>1.016223901100406</v>
+        <v>0.9909476605263158</v>
       </c>
       <c r="P21">
-        <v>1.006204389834278</v>
+        <v>0.9964722263157894</v>
       </c>
       <c r="Q21">
-        <v>1.006204389834278</v>
+        <v>0.9964722263157894</v>
       </c>
       <c r="R21">
-        <v>1.002263898508572</v>
+        <v>0.9985957552631577</v>
       </c>
       <c r="S21">
-        <v>1.002263898508572</v>
+        <v>0.9985957552631577</v>
       </c>
       <c r="T21">
-        <v>1.000868113039493</v>
+        <v>0.9995825978947369</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9975199020681135</v>
+        <v>1.011711557894737</v>
       </c>
       <c r="D22">
-        <v>0.9976113671436374</v>
+        <v>1.0120126</v>
       </c>
       <c r="E22">
-        <v>0.9932614545863709</v>
+        <v>1.0308196</v>
       </c>
       <c r="F22">
-        <v>1.005467452870495</v>
+        <v>0.9742715484210523</v>
       </c>
       <c r="G22">
-        <v>0.9976113671436374</v>
+        <v>1.0120126</v>
       </c>
       <c r="H22">
-        <v>1.009886502223196</v>
+        <v>0.95304221</v>
       </c>
       <c r="I22">
-        <v>0.9974822711396779</v>
+        <v>1.0115877</v>
       </c>
       <c r="J22">
-        <v>1.009886502223196</v>
+        <v>0.95304221</v>
       </c>
       <c r="K22">
-        <v>0.9976113671436374</v>
+        <v>1.0120126</v>
       </c>
       <c r="L22">
-        <v>0.9974822711396779</v>
+        <v>1.0115877</v>
       </c>
       <c r="M22">
-        <v>1.003684386681437</v>
+        <v>0.982314955</v>
       </c>
       <c r="N22">
-        <v>1.003684386681437</v>
+        <v>0.982314955</v>
       </c>
       <c r="O22">
-        <v>1.004278742077789</v>
+        <v>0.9796338194736841</v>
       </c>
       <c r="P22">
-        <v>1.001660046835503</v>
+        <v>0.99221417</v>
       </c>
       <c r="Q22">
-        <v>1.001660046835504</v>
+        <v>0.99221417</v>
       </c>
       <c r="R22">
-        <v>1.000647876912537</v>
+        <v>0.9971637775</v>
       </c>
       <c r="S22">
-        <v>1.000647876912537</v>
+        <v>0.9971637775</v>
       </c>
       <c r="T22">
-        <v>1.000204825005248</v>
+        <v>0.9989075360526315</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9970235420755293</v>
+        <v>0.9906687327933373</v>
       </c>
       <c r="D23">
-        <v>0.9970373435804138</v>
+        <v>0.9904424245314536</v>
       </c>
       <c r="E23">
-        <v>0.9920439098363573</v>
+        <v>0.97542581761095</v>
       </c>
       <c r="F23">
-        <v>1.006549913773344</v>
+        <v>1.020500958329837</v>
       </c>
       <c r="G23">
-        <v>0.9970373435804138</v>
+        <v>0.9904424245314536</v>
       </c>
       <c r="H23">
-        <v>1.011900739234415</v>
+        <v>1.037408880011357</v>
       </c>
       <c r="I23">
-        <v>0.9970178570257232</v>
+        <v>0.9907618649600245</v>
       </c>
       <c r="J23">
-        <v>1.011900739234415</v>
+        <v>1.037408880011357</v>
       </c>
       <c r="K23">
-        <v>0.9970373435804138</v>
+        <v>0.9904424245314536</v>
       </c>
       <c r="L23">
-        <v>0.9970178570257232</v>
+        <v>0.9907618649600245</v>
       </c>
       <c r="M23">
-        <v>1.004459298130069</v>
+        <v>1.01408537248569</v>
       </c>
       <c r="N23">
-        <v>1.004459298130069</v>
+        <v>1.01408537248569</v>
       </c>
       <c r="O23">
-        <v>1.005156170011161</v>
+        <v>1.016223901100406</v>
       </c>
       <c r="P23">
-        <v>1.001985313280184</v>
+        <v>1.006204389834278</v>
       </c>
       <c r="Q23">
-        <v>1.001985313280184</v>
+        <v>1.006204389834278</v>
       </c>
       <c r="R23">
-        <v>1.000748320855242</v>
+        <v>1.002263898508572</v>
       </c>
       <c r="S23">
-        <v>1.000748320855242</v>
+        <v>1.002263898508572</v>
       </c>
       <c r="T23">
-        <v>1.000262217587631</v>
+        <v>1.000868113039493</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9992274725860867</v>
+        <v>0.9975199020681135</v>
       </c>
       <c r="D24">
-        <v>0.9992211241281937</v>
+        <v>0.9976113671436374</v>
       </c>
       <c r="E24">
-        <v>0.9979485986214079</v>
+        <v>0.9932614545863709</v>
       </c>
       <c r="F24">
-        <v>1.001698778897178</v>
+        <v>1.005467452870495</v>
       </c>
       <c r="G24">
-        <v>0.9992211241281937</v>
+        <v>0.9976113671436374</v>
       </c>
       <c r="H24">
-        <v>1.003092467888098</v>
+        <v>1.009886502223196</v>
       </c>
       <c r="I24">
-        <v>0.9992300831470612</v>
+        <v>0.9974822711396779</v>
       </c>
       <c r="J24">
-        <v>1.003092467888098</v>
+        <v>1.009886502223196</v>
       </c>
       <c r="K24">
-        <v>0.9992211241281937</v>
+        <v>0.9976113671436374</v>
       </c>
       <c r="L24">
-        <v>0.9992300831470612</v>
+        <v>0.9974822711396779</v>
       </c>
       <c r="M24">
-        <v>1.00116127551758</v>
+        <v>1.003684386681437</v>
       </c>
       <c r="N24">
-        <v>1.00116127551758</v>
+        <v>1.003684386681437</v>
       </c>
       <c r="O24">
-        <v>1.001340443310779</v>
+        <v>1.004278742077789</v>
       </c>
       <c r="P24">
-        <v>1.000514558387785</v>
+        <v>1.001660046835503</v>
       </c>
       <c r="Q24">
-        <v>1.000514558387784</v>
+        <v>1.001660046835504</v>
       </c>
       <c r="R24">
-        <v>1.000191199822887</v>
+        <v>1.000647876912537</v>
       </c>
       <c r="S24">
-        <v>1.000191199822887</v>
+        <v>1.000647876912537</v>
       </c>
       <c r="T24">
-        <v>1.000069754211337</v>
+        <v>1.000204825005248</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.009175119596849</v>
+        <v>0.9970235420755293</v>
       </c>
       <c r="D25">
-        <v>1.009630745342179</v>
+        <v>0.9970373435804138</v>
       </c>
       <c r="E25">
-        <v>1.023844475337469</v>
+        <v>0.9920439098363573</v>
       </c>
       <c r="F25">
-        <v>0.9798707752257811</v>
+        <v>1.006549913773344</v>
       </c>
       <c r="G25">
-        <v>1.009630745342179</v>
+        <v>0.9970373435804138</v>
       </c>
       <c r="H25">
-        <v>0.9631307958606007</v>
+        <v>1.011900739234415</v>
       </c>
       <c r="I25">
-        <v>1.00898760841897</v>
+        <v>0.9970178570257232</v>
       </c>
       <c r="J25">
-        <v>0.9631307958606007</v>
+        <v>1.011900739234415</v>
       </c>
       <c r="K25">
-        <v>1.009630745342179</v>
+        <v>0.9970373435804138</v>
       </c>
       <c r="L25">
-        <v>1.00898760841897</v>
+        <v>0.9970178570257232</v>
       </c>
       <c r="M25">
-        <v>0.9860592021397854</v>
+        <v>1.004459298130069</v>
       </c>
       <c r="N25">
-        <v>0.9860592021397854</v>
+        <v>1.004459298130069</v>
       </c>
       <c r="O25">
-        <v>0.9839963931684507</v>
+        <v>1.005156170011161</v>
       </c>
       <c r="P25">
-        <v>0.9939163832072498</v>
+        <v>1.001985313280184</v>
       </c>
       <c r="Q25">
-        <v>0.99391638320725</v>
+        <v>1.001985313280184</v>
       </c>
       <c r="R25">
-        <v>0.9978449737409822</v>
+        <v>1.000748320855242</v>
       </c>
       <c r="S25">
-        <v>0.9978449737409822</v>
+        <v>1.000748320855242</v>
       </c>
       <c r="T25">
-        <v>0.9991065866303083</v>
+        <v>1.000262217587631</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.002435122738661</v>
+        <v>0.9992274725860867</v>
       </c>
       <c r="D26">
-        <v>1.002246668757283</v>
+        <v>0.9992211241281937</v>
       </c>
       <c r="E26">
-        <v>1.006751139343956</v>
+        <v>0.9979485986214079</v>
       </c>
       <c r="F26">
-        <v>0.9946195627435064</v>
+        <v>1.001698778897178</v>
       </c>
       <c r="G26">
-        <v>1.002246668757283</v>
+        <v>0.9992211241281937</v>
       </c>
       <c r="H26">
-        <v>0.9903293150705917</v>
+        <v>1.003092467888098</v>
       </c>
       <c r="I26">
-        <v>1.002512680623129</v>
+        <v>0.9992300831470612</v>
       </c>
       <c r="J26">
-        <v>0.9903293150705917</v>
+        <v>1.003092467888098</v>
       </c>
       <c r="K26">
-        <v>1.002246668757283</v>
+        <v>0.9992211241281937</v>
       </c>
       <c r="L26">
-        <v>1.002512680623129</v>
+        <v>0.9992300831470612</v>
       </c>
       <c r="M26">
-        <v>0.9964209978468603</v>
+        <v>1.00116127551758</v>
       </c>
       <c r="N26">
-        <v>0.9964209978468603</v>
+        <v>1.00116127551758</v>
       </c>
       <c r="O26">
-        <v>0.9958205194790756</v>
+        <v>1.001340443310779</v>
       </c>
       <c r="P26">
-        <v>0.9983628881503345</v>
+        <v>1.000514558387785</v>
       </c>
       <c r="Q26">
-        <v>0.9983628881503345</v>
+        <v>1.000514558387784</v>
       </c>
       <c r="R26">
-        <v>0.9993338333020716</v>
+        <v>1.000191199822887</v>
       </c>
       <c r="S26">
-        <v>0.9993338333020716</v>
+        <v>1.000191199822887</v>
       </c>
       <c r="T26">
-        <v>0.9998157482128546</v>
+        <v>1.000069754211337</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.000697168807335</v>
+        <v>1.009175119596849</v>
       </c>
       <c r="D27">
-        <v>1.000703519096353</v>
+        <v>1.009630745342179</v>
       </c>
       <c r="E27">
-        <v>1.001850456279138</v>
+        <v>1.023844475337469</v>
       </c>
       <c r="F27">
-        <v>0.9984670045525939</v>
+        <v>0.9798707752257811</v>
       </c>
       <c r="G27">
-        <v>1.000703519096353</v>
+        <v>1.009630745342179</v>
       </c>
       <c r="H27">
-        <v>0.9972089695950399</v>
+        <v>0.9631307958606007</v>
       </c>
       <c r="I27">
-        <v>1.000694570437099</v>
+        <v>1.00898760841897</v>
       </c>
       <c r="J27">
-        <v>0.9972089695950399</v>
+        <v>0.9631307958606007</v>
       </c>
       <c r="K27">
-        <v>1.000703519096353</v>
+        <v>1.009630745342179</v>
       </c>
       <c r="L27">
-        <v>1.000694570437099</v>
+        <v>1.00898760841897</v>
       </c>
       <c r="M27">
-        <v>0.9989517700160694</v>
+        <v>0.9860592021397854</v>
       </c>
       <c r="N27">
-        <v>0.9989517700160694</v>
+        <v>0.9860592021397854</v>
       </c>
       <c r="O27">
-        <v>0.9987901815282442</v>
+        <v>0.9839963931684507</v>
       </c>
       <c r="P27">
-        <v>0.9995356863761641</v>
+        <v>0.9939163832072498</v>
       </c>
       <c r="Q27">
-        <v>0.9995356863761641</v>
+        <v>0.99391638320725</v>
       </c>
       <c r="R27">
-        <v>0.9998276445562113</v>
+        <v>0.9978449737409822</v>
       </c>
       <c r="S27">
-        <v>0.9998276445562113</v>
+        <v>0.9978449737409822</v>
       </c>
       <c r="T27">
-        <v>0.9999369481279264</v>
+        <v>0.9991065866303083</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.001211623532038</v>
+        <v>1.002435122738661</v>
       </c>
       <c r="D28">
-        <v>1.001244731236551</v>
+        <v>1.002246668757283</v>
       </c>
       <c r="E28">
-        <v>1.00318578899641</v>
+        <v>1.006751139343956</v>
       </c>
       <c r="F28">
-        <v>0.997338495792097</v>
+        <v>0.9946195627435064</v>
       </c>
       <c r="G28">
-        <v>1.001244731236551</v>
+        <v>1.002246668757283</v>
       </c>
       <c r="H28">
-        <v>0.9951412228919242</v>
+        <v>0.9903293150705917</v>
       </c>
       <c r="I28">
-        <v>1.001198005548696</v>
+        <v>1.002512680623129</v>
       </c>
       <c r="J28">
-        <v>0.9951412228919242</v>
+        <v>0.9903293150705917</v>
       </c>
       <c r="K28">
-        <v>1.001244731236551</v>
+        <v>1.002246668757283</v>
       </c>
       <c r="L28">
-        <v>1.001198005548696</v>
+        <v>1.002512680623129</v>
       </c>
       <c r="M28">
-        <v>0.9981696142203103</v>
+        <v>0.9964209978468603</v>
       </c>
       <c r="N28">
-        <v>0.9981696142203103</v>
+        <v>0.9964209978468603</v>
       </c>
       <c r="O28">
-        <v>0.9978925747442391</v>
+        <v>0.9958205194790756</v>
       </c>
       <c r="P28">
-        <v>0.9991946532257239</v>
+        <v>0.9983628881503345</v>
       </c>
       <c r="Q28">
-        <v>0.9991946532257239</v>
+        <v>0.9983628881503345</v>
       </c>
       <c r="R28">
-        <v>0.9997071727284307</v>
+        <v>0.9993338333020716</v>
       </c>
       <c r="S28">
-        <v>0.9997071727284307</v>
+        <v>0.9993338333020716</v>
       </c>
       <c r="T28">
-        <v>0.9998866446662861</v>
+        <v>0.9998157482128546</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.000697168807335</v>
+      </c>
+      <c r="D29">
+        <v>1.000703519096353</v>
+      </c>
+      <c r="E29">
+        <v>1.001850456279138</v>
+      </c>
+      <c r="F29">
+        <v>0.9984670045525939</v>
+      </c>
+      <c r="G29">
+        <v>1.000703519096353</v>
+      </c>
+      <c r="H29">
+        <v>0.9972089695950399</v>
+      </c>
+      <c r="I29">
+        <v>1.000694570437099</v>
+      </c>
+      <c r="J29">
+        <v>0.9972089695950399</v>
+      </c>
+      <c r="K29">
+        <v>1.000703519096353</v>
+      </c>
+      <c r="L29">
+        <v>1.000694570437099</v>
+      </c>
+      <c r="M29">
+        <v>0.9989517700160694</v>
+      </c>
+      <c r="N29">
+        <v>0.9989517700160694</v>
+      </c>
+      <c r="O29">
+        <v>0.9987901815282442</v>
+      </c>
+      <c r="P29">
+        <v>0.9995356863761641</v>
+      </c>
+      <c r="Q29">
+        <v>0.9995356863761641</v>
+      </c>
+      <c r="R29">
+        <v>0.9998276445562113</v>
+      </c>
+      <c r="S29">
+        <v>0.9998276445562113</v>
+      </c>
+      <c r="T29">
+        <v>0.9999369481279264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.001211623532038</v>
+      </c>
+      <c r="D30">
+        <v>1.001244731236551</v>
+      </c>
+      <c r="E30">
+        <v>1.00318578899641</v>
+      </c>
+      <c r="F30">
+        <v>0.997338495792097</v>
+      </c>
+      <c r="G30">
+        <v>1.001244731236551</v>
+      </c>
+      <c r="H30">
+        <v>0.9951412228919242</v>
+      </c>
+      <c r="I30">
+        <v>1.001198005548696</v>
+      </c>
+      <c r="J30">
+        <v>0.9951412228919242</v>
+      </c>
+      <c r="K30">
+        <v>1.001244731236551</v>
+      </c>
+      <c r="L30">
+        <v>1.001198005548696</v>
+      </c>
+      <c r="M30">
+        <v>0.9981696142203103</v>
+      </c>
+      <c r="N30">
+        <v>0.9981696142203103</v>
+      </c>
+      <c r="O30">
+        <v>0.9978925747442391</v>
+      </c>
+      <c r="P30">
+        <v>0.9991946532257239</v>
+      </c>
+      <c r="Q30">
+        <v>0.9991946532257239</v>
+      </c>
+      <c r="R30">
+        <v>0.9997071727284307</v>
+      </c>
+      <c r="S30">
+        <v>0.9997071727284307</v>
+      </c>
+      <c r="T30">
+        <v>0.9998866446662861</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9989935744375774</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9991215623488398</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9971413668222673</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.002229883384566</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9991215623488398</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.003978273466173</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9989409168570128</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.003978273466173</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9991215623488398</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9989409168570128</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.001459595161593</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.001459595161593</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.001716357902584</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.000680250890675</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.000680250890675</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000290578755216</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000290578755216</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000067596219406</v>
       </c>
     </row>
